--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_27.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1815645.583829902</v>
+        <v>1912315.560314278</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836238</v>
+        <v>6654055.582836239</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095095</v>
       </c>
     </row>
     <row r="9">
@@ -656,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>150.0807153919799</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -671,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>300.593439059464</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -704,10 +706,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -719,13 +721,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,19 +819,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>41.03250833502995</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -838,7 +840,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -859,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -874,16 +876,16 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>122.3991365428349</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>109.1530462869109</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -914,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,28 +943,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>350.1488248362907</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>8.389005322401447</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1096,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>26.18302183304453</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,22 +1135,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>363.8463612778712</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>151.9313162448613</v>
@@ -1178,13 +1180,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>100.776399812475</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1196,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -1300,7 +1302,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>94.63926978364032</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,25 +1335,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>55.72286606387029</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>106.2755841489812</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>8.451161327941099</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
@@ -1582,13 +1584,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1625,7 +1627,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>13.42874471570741</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>144.7268717888065</v>
       </c>
     </row>
     <row r="17">
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2005,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>137.0872572463027</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2053,13 +2055,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>21.06047827574926</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2178,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2239,7 +2241,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2254,7 +2256,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>29.74310329855294</v>
       </c>
       <c r="I22" t="n">
         <v>96.35242040983809</v>
@@ -2287,7 +2289,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>168.1742963765279</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
@@ -2305,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2476,25 +2478,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>7.601081015447265</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>95.81514163764206</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2652,7 +2654,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>109.0187960410209</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>113.5103646250816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2950,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>157.0537370306392</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3153,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3196,16 +3198,16 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>5.174118330816678</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3253,7 +3255,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3284,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3363,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247734</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3421,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -3436,13 +3438,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>52.23490948285954</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>114.4746605491561</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3490,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3560,10 +3562,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W38" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
         <v>369.731100678469</v>
@@ -3627,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3724,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>212.5276795955112</v>
       </c>
       <c r="Y40" t="n">
-        <v>113.5103646250816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.187761788176</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
         <v>203.9179701396201</v>
@@ -3837,7 +3839,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,10 +3900,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3910,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,19 +3945,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>234.8367870545308</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4074,7 +4076,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247747</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>90.41948680756549</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>109.9022384814634</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -4183,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4192,7 +4194,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4201,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1512.612574238668</v>
+        <v>1995.909162857192</v>
       </c>
       <c r="C2" t="n">
-        <v>1512.612574238668</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D2" t="n">
-        <v>1154.346875631917</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E2" t="n">
-        <v>768.558623033673</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F2" t="n">
-        <v>357.5727182440655</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4328,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733124</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224073</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V2" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="W2" t="n">
-        <v>2289.351746278601</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="X2" t="n">
-        <v>2289.351746278601</v>
+        <v>2147.505845071313</v>
       </c>
       <c r="Y2" t="n">
-        <v>1899.21241430279</v>
+        <v>2147.505845071313</v>
       </c>
     </row>
     <row r="3">
@@ -4383,40 +4385,40 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>384.4474646615928</v>
+        <v>266.206002764199</v>
       </c>
       <c r="L3" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598708</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417901</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N3" t="n">
         <v>1748.695370517453</v>
@@ -4431,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4446,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C4" t="n">
-        <v>2068.619613065019</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D4" t="n">
-        <v>2068.619613065019</v>
+        <v>517.7458231623355</v>
       </c>
       <c r="E4" t="n">
-        <v>2068.619613065019</v>
+        <v>369.8327295799424</v>
       </c>
       <c r="F4" t="n">
-        <v>2068.619613065019</v>
+        <v>222.942782082032</v>
       </c>
       <c r="G4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I4" t="n">
-        <v>2068.619613065019</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J4" t="n">
-        <v>2022.963088632153</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K4" t="n">
-        <v>2079.265281698421</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>2206.839139259579</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M4" t="n">
-        <v>2351.737007977609</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N4" t="n">
-        <v>2498.624145662038</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O4" t="n">
-        <v>2618.281896171278</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P4" t="n">
-        <v>2697.149091018222</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>2667.732171871844</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V4" t="n">
-        <v>2413.047683665958</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W4" t="n">
-        <v>2289.412192208549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X4" t="n">
-        <v>2289.412192208549</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y4" t="n">
-        <v>2068.619613065019</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="5">
@@ -4541,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>882.8926947117852</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C5" t="n">
-        <v>882.8926947117852</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E5" t="n">
-        <v>882.8926947117852</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4589,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V5" t="n">
-        <v>2366.086203674652</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="W5" t="n">
-        <v>2013.317548404538</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="X5" t="n">
-        <v>1659.631866751719</v>
+        <v>1873.842488573869</v>
       </c>
       <c r="Y5" t="n">
-        <v>1269.492534775907</v>
+        <v>1873.842488573869</v>
       </c>
     </row>
     <row r="6">
@@ -4620,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036423</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>129.2001442204941</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615926</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572644</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1313.210296315295</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1866.936832414846</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2307.07275543519</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4699,25 +4701,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>190.2718927217162</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>190.2718927217162</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>190.2718927217162</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>190.2718927217162</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4731,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477911</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>672.2645682590013</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>444.956380927603</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>444.956380927603</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X7" t="n">
-        <v>190.2718927217162</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y7" t="n">
-        <v>190.2718927217162</v>
+        <v>507.3364050629041</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1705.877315537684</v>
+        <v>1763.586886263858</v>
       </c>
       <c r="C8" t="n">
-        <v>1705.877315537684</v>
+        <v>1394.624369323446</v>
       </c>
       <c r="D8" t="n">
-        <v>1705.877315537684</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="E8" t="n">
-        <v>1320.08906293944</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F8" t="n">
-        <v>952.5674858910851</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G8" t="n">
-        <v>534.603677789272</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
         <v>207.4089578252748</v>
@@ -4802,7 +4804,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4829,25 +4831,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2465.942913862886</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="U8" t="n">
-        <v>2465.942913862886</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="V8" t="n">
-        <v>2465.942913862886</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="W8" t="n">
-        <v>2465.942913862886</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="X8" t="n">
-        <v>2092.477155601806</v>
+        <v>2540.326058303791</v>
       </c>
       <c r="Y8" t="n">
-        <v>2092.477155601806</v>
+        <v>2150.18672632798</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4883,25 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>246.4894537511405</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="C10" t="n">
-        <v>246.4894537511405</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="D10" t="n">
-        <v>246.4894537511405</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="E10" t="n">
-        <v>246.4894537511405</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="F10" t="n">
-        <v>99.59950625323012</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4981,31 +4983,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T10" t="n">
-        <v>484.4236418782189</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>484.4236418782189</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V10" t="n">
-        <v>484.4236418782189</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W10" t="n">
-        <v>428.1379185813802</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="X10" t="n">
-        <v>428.1379185813802</v>
+        <v>149.5382038240415</v>
       </c>
       <c r="Y10" t="n">
-        <v>428.1379185813802</v>
+        <v>149.5382038240415</v>
       </c>
     </row>
     <row r="11">
@@ -5039,25 +5041,25 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J11" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L11" t="n">
-        <v>1482.778354750621</v>
+        <v>1453.840519464783</v>
       </c>
       <c r="M11" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N11" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O11" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P11" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q11" t="n">
         <v>4653.975400188665</v>
@@ -5094,43 +5096,43 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J12" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K12" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M12" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N12" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O12" t="n">
         <v>2125.96131142685</v>
@@ -5139,7 +5141,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q12" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
         <v>2593.958107142068</v>
@@ -5148,22 +5150,22 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T12" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U12" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V12" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W12" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X12" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y12" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="13">
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>982.309177553988</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="C13" t="n">
-        <v>813.3729946260811</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="D13" t="n">
-        <v>663.2563552137453</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E13" t="n">
-        <v>515.3432616313522</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F13" t="n">
         <v>506.8067350374723</v>
@@ -5230,19 +5232,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U13" t="n">
-        <v>1163.957642384228</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V13" t="n">
-        <v>1163.957642384228</v>
+        <v>1198.376021052697</v>
       </c>
       <c r="W13" t="n">
-        <v>1163.957642384228</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="X13" t="n">
-        <v>1163.957642384228</v>
+        <v>908.9588510157366</v>
       </c>
       <c r="Y13" t="n">
-        <v>1163.957642384228</v>
+        <v>908.9588510157366</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5257,7 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D14" t="n">
         <v>1646.988141143013</v>
@@ -5264,40 +5266,40 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551615</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G14" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I14" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1236.699401366028</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2215.249704195857</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N14" t="n">
-        <v>3195.001976422504</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O14" t="n">
-        <v>3697.97444730184</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P14" t="n">
-        <v>4405.689038432983</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5309,19 +5311,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G15" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
@@ -5361,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5373,16 +5375,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1120.662598458018</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="C16" t="n">
-        <v>951.7264155301116</v>
+        <v>245.6776738607301</v>
       </c>
       <c r="D16" t="n">
-        <v>801.6097761177758</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E16" t="n">
-        <v>653.6966825353827</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F16" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G16" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H16" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I16" t="n">
         <v>95.56103444839441</v>
@@ -5458,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S16" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T16" t="n">
-        <v>1764.65758193153</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U16" t="n">
-        <v>1764.65758193153</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V16" t="n">
-        <v>1764.65758193153</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W16" t="n">
-        <v>1751.093193329805</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X16" t="n">
-        <v>1523.103642431788</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y16" t="n">
-        <v>1302.311063288258</v>
+        <v>245.6776738607301</v>
       </c>
     </row>
     <row r="17">
@@ -5519,7 +5521,7 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1482.778354750621</v>
+        <v>1237.706702364128</v>
       </c>
       <c r="M17" t="n">
         <v>2216.257005193956</v>
@@ -5647,13 +5649,13 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>500.2948715744233</v>
+        <v>511.9395339702917</v>
       </c>
       <c r="C19" t="n">
-        <v>331.3586886465164</v>
+        <v>343.0033510423848</v>
       </c>
       <c r="D19" t="n">
-        <v>331.3586886465164</v>
+        <v>192.886711630049</v>
       </c>
       <c r="E19" t="n">
         <v>192.886711630049</v>
@@ -5701,22 +5703,22 @@
         <v>1674.827124689058</v>
       </c>
       <c r="T19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1674.827124689058</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="V19" t="n">
-        <v>1420.142636483171</v>
+        <v>1431.78729887904</v>
       </c>
       <c r="W19" t="n">
-        <v>1130.72546644621</v>
+        <v>1142.370128842079</v>
       </c>
       <c r="X19" t="n">
-        <v>902.7359155481931</v>
+        <v>914.3805779440615</v>
       </c>
       <c r="Y19" t="n">
-        <v>681.943336404663</v>
+        <v>693.5879988005314</v>
       </c>
     </row>
     <row r="20">
@@ -5753,16 +5755,16 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K20" t="n">
-        <v>939.1634975427194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L20" t="n">
-        <v>1803.682313196074</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M20" t="n">
-        <v>2782.232616025903</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>3573.001456870721</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
         <v>4075.973927750058</v>
@@ -5805,25 +5807,25 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D21" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F21" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
@@ -5832,10 +5834,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.502502919359</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
@@ -5862,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5871,10 +5873,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X21" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y21" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="22">
@@ -5884,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>192.886711630049</v>
+        <v>391.866433243363</v>
       </c>
       <c r="C22" t="n">
-        <v>192.886711630049</v>
+        <v>222.930250315456</v>
       </c>
       <c r="D22" t="n">
-        <v>192.886711630049</v>
+        <v>222.930250315456</v>
       </c>
       <c r="E22" t="n">
-        <v>192.886711630049</v>
+        <v>222.930250315456</v>
       </c>
       <c r="F22" t="n">
-        <v>192.886711630049</v>
+        <v>222.930250315456</v>
       </c>
       <c r="G22" t="n">
-        <v>192.886711630049</v>
+        <v>222.930250315456</v>
       </c>
       <c r="H22" t="n">
         <v>192.886711630049</v>
@@ -5935,25 +5937,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1696.639982219274</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1474.8733667888</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1185.770499914444</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>931.0860117085572</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>641.6688416715965</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>413.6792907735792</v>
+        <v>391.866433243363</v>
       </c>
       <c r="Y22" t="n">
-        <v>192.886711630049</v>
+        <v>391.866433243363</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551617</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001583</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
-        <v>137.5579332089255</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I23" t="n">
         <v>95.56103444839441</v>
@@ -6020,19 +6022,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="24">
@@ -6069,10 +6071,10 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K24" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1071.22838302703</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C25" t="n">
-        <v>902.292200099123</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="D25" t="n">
-        <v>752.1755606867872</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="E25" t="n">
-        <v>604.2624671043941</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F25" t="n">
-        <v>457.3725196064837</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G25" t="n">
-        <v>289.6696829812026</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I25" t="n">
         <v>95.56103444839441</v>
@@ -6175,22 +6177,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T25" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U25" t="n">
-        <v>1956.343466104704</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V25" t="n">
-        <v>1701.658977898817</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W25" t="n">
-        <v>1701.658977898817</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X25" t="n">
-        <v>1473.669427000799</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y25" t="n">
-        <v>1252.876847857269</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="26">
@@ -6215,7 +6217,7 @@
         <v>850.213983755162</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H26" t="n">
         <v>137.5579332089257</v>
@@ -6227,25 +6229,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>618.2595390972663</v>
+        <v>939.1634975427194</v>
       </c>
       <c r="L26" t="n">
-        <v>1482.778354750621</v>
+        <v>1803.682313196074</v>
       </c>
       <c r="M26" t="n">
-        <v>2461.32865758045</v>
+        <v>2782.232616025903</v>
       </c>
       <c r="N26" t="n">
-        <v>3196.009277420603</v>
+        <v>3329.011433084685</v>
       </c>
       <c r="O26" t="n">
-        <v>4075.973927750058</v>
+        <v>3831.983903964022</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107236</v>
+        <v>4226.7582703212</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
         <v>4778.05172241972</v>
@@ -6279,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973203</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161933</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549422</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494866</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763717</v>
       </c>
       <c r="G27" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089899</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I27" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390118</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193594</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320249</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.47698845434</v>
+        <v>1241.476988454341</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008796</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6324,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549552</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6333,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313403</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.80937344782</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216076</v>
+        <v>1808.657265216077</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487874</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>95.56103444839441</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="C28" t="n">
-        <v>95.56103444839441</v>
+        <v>450.9198012134734</v>
       </c>
       <c r="D28" t="n">
-        <v>95.56103444839441</v>
+        <v>340.7998052124422</v>
       </c>
       <c r="E28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="F28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839441</v>
+        <v>192.886711630049</v>
       </c>
       <c r="I28" t="n">
         <v>95.56103444839441</v>
@@ -6424,10 +6426,10 @@
         <v>619.8559841413803</v>
       </c>
       <c r="X28" t="n">
-        <v>391.866433243363</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y28" t="n">
-        <v>277.2094992786341</v>
+        <v>619.8559841413803</v>
       </c>
     </row>
     <row r="29">
@@ -6452,7 +6454,7 @@
         <v>850.2139837551626</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001593</v>
       </c>
       <c r="H29" t="n">
         <v>137.5579332089264</v>
@@ -6467,13 +6469,13 @@
         <v>618.2595390972663</v>
       </c>
       <c r="L29" t="n">
-        <v>1237.706702364128</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M29" t="n">
-        <v>2216.257005193957</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N29" t="n">
-        <v>3196.009277420604</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O29" t="n">
         <v>4075.973927750058</v>
@@ -6516,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6540,13 +6542,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K30" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
@@ -6558,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6582,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>824.3287722635405</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>655.3925893356336</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>507.4794957532405</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>360.5895482553301</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6643,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S31" t="n">
-        <v>1780.96276986786</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T31" t="n">
-        <v>1559.196154437386</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U31" t="n">
-        <v>1270.093287563029</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V31" t="n">
-        <v>1015.408799357142</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="W31" t="n">
-        <v>725.9916293201816</v>
+        <v>1385.409954652097</v>
       </c>
       <c r="X31" t="n">
-        <v>498.0020784221642</v>
+        <v>1226.76981623731</v>
       </c>
       <c r="Y31" t="n">
-        <v>277.2094992786341</v>
+        <v>1005.97723709378</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6676,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001578</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
         <v>284.4401654074198</v>
@@ -6713,37 +6715,37 @@
         <v>3441.080929807096</v>
       </c>
       <c r="O32" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P32" t="n">
-        <v>4470.748294107237</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q32" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C33" t="n">
-        <v>796.1397432161928</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G33" t="n">
         <v>205.0702204089889</v>
@@ -6774,13 +6776,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6795,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6819,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="34">
@@ -6832,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>680.9693001177193</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>512.0331171898124</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>512.0331171898124</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>512.0331171898124</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>506.8067350374723</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6880,28 +6882,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R34" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1453.060509258584</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1453.060509258584</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>1198.376021052697</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>908.9588510157366</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>680.9693001177193</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>680.9693001177193</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6911,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>451.8458144277729</v>
+        <v>284.44016540742</v>
       </c>
       <c r="K35" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972665</v>
       </c>
       <c r="L35" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M35" t="n">
-        <v>2091.135264483406</v>
+        <v>2274.668463554305</v>
       </c>
       <c r="N35" t="n">
-        <v>2637.914081542188</v>
+        <v>3254.420735780952</v>
       </c>
       <c r="O35" t="n">
-        <v>3517.878731871643</v>
+        <v>3757.393206660289</v>
       </c>
       <c r="P35" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107235</v>
       </c>
       <c r="Q35" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862917</v>
       </c>
       <c r="R35" t="n">
         <v>4778.05172241972</v>
@@ -6971,16 +6973,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3154.542034367488</v>
+        <v>970.5927724973199</v>
       </c>
       <c r="C36" t="n">
-        <v>2980.089005086361</v>
+        <v>796.1397432161929</v>
       </c>
       <c r="D36" t="n">
-        <v>2831.15459542511</v>
+        <v>647.2053335549417</v>
       </c>
       <c r="E36" t="n">
-        <v>2671.917140419654</v>
+        <v>487.9678785494862</v>
       </c>
       <c r="F36" t="n">
-        <v>2525.382582446539</v>
+        <v>341.4333205763712</v>
       </c>
       <c r="G36" t="n">
-        <v>2389.019482279157</v>
+        <v>205.0702204089893</v>
       </c>
       <c r="H36" t="n">
-        <v>2298.517587917024</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>2279.510296318562</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>2373.187565809179</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K36" t="n">
-        <v>2611.451764789527</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L36" t="n">
-        <v>2978.149925102192</v>
+        <v>794.2006632320238</v>
       </c>
       <c r="M36" t="n">
-        <v>3425.426250324508</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>3898.949293878963</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>4309.910573297017</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P36" t="n">
-        <v>4620.41016477312</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>4778.05172241972</v>
+        <v>2594.102460549553</v>
       </c>
       <c r="R36" t="n">
-        <v>4777.907369012236</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S36" t="n">
-        <v>4648.469482505716</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>4455.826482183571</v>
+        <v>2271.877220313404</v>
       </c>
       <c r="U36" t="n">
-        <v>4227.758635317987</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V36" t="n">
-        <v>3992.606527086244</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>3738.369170358043</v>
+        <v>1554.419908487875</v>
       </c>
       <c r="X36" t="n">
-        <v>3530.51767015251</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>3322.757371387556</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3213.574689558379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C37" t="n">
-        <v>3213.574689558379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D37" t="n">
-        <v>3213.574689558379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E37" t="n">
-        <v>3213.574689558379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F37" t="n">
-        <v>3213.574689558379</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G37" t="n">
-        <v>3160.812154727208</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H37" t="n">
-        <v>3014.594967945065</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I37" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927027</v>
       </c>
       <c r="M37" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892252</v>
       </c>
       <c r="N37" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598117</v>
       </c>
       <c r="O37" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P37" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>4688.221265177248</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S37" t="n">
-        <v>4496.535381004074</v>
+        <v>1674.827124689059</v>
       </c>
       <c r="T37" t="n">
-        <v>4274.7687655736</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>3985.665898699243</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>3730.981410493357</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>3441.564240456396</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>3213.574689558379</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>3213.574689558379</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7172,28 +7174,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L38" t="n">
-        <v>1557.603359811481</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.135264483406</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N38" t="n">
-        <v>2637.914081542188</v>
+        <v>3441.080929807096</v>
       </c>
       <c r="O38" t="n">
-        <v>3517.878731871643</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P38" t="n">
-        <v>4231.233819318589</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q38" t="n">
-        <v>4689.712021827577</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R38" t="n">
         <v>4778.05172241972</v>
@@ -7208,7 +7210,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
@@ -7227,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D39" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F39" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089891</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I39" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320241</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7284,7 +7286,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U39" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V39" t="n">
         <v>1808.657265216076</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839441</v>
+        <v>3508.406158038192</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839441</v>
+        <v>3508.406158038192</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839441</v>
+        <v>3358.289518625857</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839441</v>
+        <v>3210.376425043463</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839441</v>
+        <v>3063.486477545553</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839441</v>
+        <v>3063.486477545553</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839441</v>
+        <v>2917.269290763411</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>2962.391923210347</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>3166.379106159223</v>
       </c>
       <c r="L40" t="n">
-        <v>661.2306482927024</v>
+        <v>3482.938904607719</v>
       </c>
       <c r="M40" t="n">
-        <v>1005.387693892251</v>
+        <v>3827.095950207268</v>
       </c>
       <c r="N40" t="n">
-        <v>1346.796070598116</v>
+        <v>4168.504326913133</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>4467.833925833546</v>
       </c>
       <c r="P40" t="n">
-        <v>1878.733169952189</v>
+        <v>4700.441426267205</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="R40" t="n">
-        <v>1866.513008862232</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S40" t="n">
-        <v>1674.827124689058</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="T40" t="n">
-        <v>1453.060509258584</v>
+        <v>4556.285106989246</v>
       </c>
       <c r="U40" t="n">
-        <v>1163.957642384228</v>
+        <v>4267.182240114889</v>
       </c>
       <c r="V40" t="n">
-        <v>909.2731541783409</v>
+        <v>4012.497751909003</v>
       </c>
       <c r="W40" t="n">
-        <v>619.8559841413803</v>
+        <v>3723.080581872042</v>
       </c>
       <c r="X40" t="n">
-        <v>391.866433243363</v>
+        <v>3508.406158038192</v>
       </c>
       <c r="Y40" t="n">
-        <v>277.2094992786341</v>
+        <v>3508.406158038192</v>
       </c>
     </row>
     <row r="41">
@@ -7385,7 +7387,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C41" t="n">
         <v>2005.253839749764</v>
@@ -7394,13 +7396,13 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
         <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7409,28 +7411,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J41" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K41" t="n">
-        <v>750.1800661608906</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L41" t="n">
-        <v>1614.698881814245</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M41" t="n">
-        <v>2593.249184644074</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N41" t="n">
-        <v>3573.001456870721</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P41" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q41" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R41" t="n">
         <v>4778.05172241972</v>
@@ -7445,16 +7447,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W41" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="42">
@@ -7464,22 +7466,22 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C42" t="n">
-        <v>796.1397432161926</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G42" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7488,10 +7490,10 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390115</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193587</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7506,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7530,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="43">
@@ -7543,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>487.6897527103525</v>
+        <v>1023.336921276364</v>
       </c>
       <c r="C43" t="n">
-        <v>487.6897527103525</v>
+        <v>854.4007383484569</v>
       </c>
       <c r="D43" t="n">
-        <v>487.6897527103525</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E43" t="n">
-        <v>339.7766591279594</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F43" t="n">
-        <v>192.886711630049</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G43" t="n">
-        <v>192.886711630049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H43" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I43" t="n">
         <v>95.56103444839441</v>
@@ -7591,28 +7593,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T43" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U43" t="n">
-        <v>1644.746393431758</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="V43" t="n">
-        <v>1407.537517619101</v>
+        <v>1943.184686185112</v>
       </c>
       <c r="W43" t="n">
-        <v>1118.12034758214</v>
+        <v>1653.767516148151</v>
       </c>
       <c r="X43" t="n">
-        <v>890.1307966841224</v>
+        <v>1425.777965250134</v>
       </c>
       <c r="Y43" t="n">
-        <v>669.3382175405923</v>
+        <v>1204.985386106604</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7631,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7646,28 +7648,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J44" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K44" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M44" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N44" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O44" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P44" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7682,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7703,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973196</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161926</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549414</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G45" t="n">
-        <v>205.070220408989</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I45" t="n">
         <v>95.56103444839441</v>
@@ -7731,7 +7733,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7758,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7767,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="46">
@@ -7780,16 +7782,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>525.6262188911253</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="C46" t="n">
-        <v>356.6900359632184</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="D46" t="n">
-        <v>206.5733965508827</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E46" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F46" t="n">
         <v>95.56103444839441</v>
@@ -7831,25 +7833,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S46" t="n">
-        <v>1956.343466104704</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T46" t="n">
-        <v>1734.57685067423</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1445.473983799873</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>1445.473983799873</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W46" t="n">
-        <v>1156.056813762912</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X46" t="n">
-        <v>928.0672628648952</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y46" t="n">
-        <v>707.274683721365</v>
+        <v>481.6968904858347</v>
       </c>
     </row>
   </sheetData>
@@ -8055,16 +8057,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719079</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>346.2692436516221</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8310,10 +8312,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>199.02694854156</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8471,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,7 +8531,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8541,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>359.9065542451761</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8550,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>166.6588033951786</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8687,28 +8689,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>417.6612145504504</v>
+        <v>219.3344627260154</v>
       </c>
       <c r="M11" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N11" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>67.53663776704173</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
         <v>65.71641987298243</v>
@@ -8924,13 +8926,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8939,16 +8941,16 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P14" t="n">
-        <v>316.1012371454183</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9167,10 +9169,10 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>170.1140909277297</v>
       </c>
       <c r="M17" t="n">
-        <v>201.9664098701116</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
         <v>437.3469244119842</v>
@@ -9401,19 +9403,19 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L20" t="n">
         <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>201.9664098701116</v>
       </c>
       <c r="N20" t="n">
-        <v>246.454569480844</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>417.6612145504504</v>
@@ -9884,19 +9886,19 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>189.7998007892635</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>180.7381496078611</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10115,7 +10117,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>170.1140909277306</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
@@ -10124,7 +10126,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400255</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -10361,7 +10363,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>133.2530576400255</v>
+        <v>67.53663776704173</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -10370,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>260.9678829613728</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>29.61882225792002</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>133.2530576400246</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>29.61882225792002</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11057,31 +11059,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>133.2530576400246</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>133.2530576400246</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>42.33988886923116</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>136.9698866949902</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23470,13 +23472,13 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>273.0942536208836</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>73.85778156328828</v>
       </c>
     </row>
     <row r="17">
@@ -23893,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>9.346705400266501</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23941,13 +23943,13 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>231.0771650480787</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24127,7 +24129,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24142,7 +24144,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>115.0119116157678</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -24175,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>21.59472895491399</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24364,25 +24366,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>138.8328816311219</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>48.93987327667872</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>39.59667697719141</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>105.0742887270132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>68.65591835839794</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25072,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25084,16 +25086,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>140.2469296921146</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25141,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -25324,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>113.7908987761687</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25363,7 +25365,7 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>105.0742887270131</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25378,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25594,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25612,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>13.18197579352596</v>
       </c>
       <c r="Y40" t="n">
-        <v>105.0742887270132</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25786,10 +25788,10 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25798,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25831,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>17.30085626929716</v>
+        <v>239.1104512034317</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>89.41249337437181</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>36.53172416510579</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>166.0258082590282</v>
@@ -26071,7 +26073,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26080,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26089,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="9">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523276</v>
       </c>
     </row>
   </sheetData>
@@ -26317,43 +26319,43 @@
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583909</v>
+        <v>554203.1946583908</v>
       </c>
       <c r="E2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974279</v>
       </c>
       <c r="G2" t="n">
         <v>536060.4122974278</v>
       </c>
       <c r="H2" t="n">
-        <v>536060.4122974272</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="I2" t="n">
+        <v>536060.4122974278</v>
+      </c>
+      <c r="J2" t="n">
         <v>536060.4122974277</v>
       </c>
-      <c r="J2" t="n">
-        <v>536060.4122974278</v>
-      </c>
       <c r="K2" t="n">
+        <v>536060.4122974275</v>
+      </c>
+      <c r="L2" t="n">
         <v>536060.4122974274</v>
       </c>
-      <c r="L2" t="n">
-        <v>536060.4122974278</v>
-      </c>
       <c r="M2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="N2" t="n">
+        <v>536060.4122974279</v>
+      </c>
+      <c r="O2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="N2" t="n">
-        <v>536060.4122974274</v>
-      </c>
-      <c r="O2" t="n">
-        <v>536060.4122974273</v>
-      </c>
       <c r="P2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974277</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145445</v>
+        <v>589967.8792145444</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389447</v>
+        <v>129642.3148389449</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,13 +26423,13 @@
         <v>201064.5059277315</v>
       </c>
       <c r="D4" t="n">
-        <v>201064.5059277316</v>
+        <v>201064.5059277315</v>
       </c>
       <c r="E4" t="n">
         <v>25090.7236749938</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="G4" t="n">
         <v>25090.72367499381</v>
@@ -26439,25 +26441,25 @@
         <v>25090.72367499381</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.72367499382</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499378</v>
       </c>
       <c r="N4" t="n">
         <v>25090.72367499381</v>
       </c>
       <c r="O4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26497,7 +26499,7 @@
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
         <v>96383.51825371364</v>
@@ -26519,7 +26521,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319688.2685472941</v>
+        <v>-319688.268547294</v>
       </c>
       <c r="C6" t="n">
         <v>270279.6106672501</v>
@@ -26528,40 +26530,40 @@
         <v>270279.6106672499</v>
       </c>
       <c r="E6" t="n">
-        <v>-312791.2436246864</v>
+        <v>-312791.2436246867</v>
       </c>
       <c r="F6" t="n">
-        <v>414586.1703687202</v>
+        <v>414586.1703687204</v>
       </c>
       <c r="G6" t="n">
         <v>414586.1703687203</v>
       </c>
       <c r="H6" t="n">
-        <v>414586.1703687197</v>
+        <v>414586.1703687202</v>
       </c>
       <c r="I6" t="n">
-        <v>414586.1703687202</v>
+        <v>414586.1703687203</v>
       </c>
       <c r="J6" t="n">
-        <v>238162.9511761274</v>
+        <v>238162.9511761272</v>
       </c>
       <c r="K6" t="n">
         <v>414586.17036872</v>
       </c>
       <c r="L6" t="n">
-        <v>414586.1703687203</v>
+        <v>414586.17036872</v>
       </c>
       <c r="M6" t="n">
-        <v>284943.8555297755</v>
+        <v>284943.8555297754</v>
       </c>
       <c r="N6" t="n">
-        <v>414586.17036872</v>
+        <v>414586.1703687205</v>
       </c>
       <c r="O6" t="n">
-        <v>414586.1703687198</v>
+        <v>414586.1703687201</v>
       </c>
       <c r="P6" t="n">
-        <v>414586.1703687203</v>
+        <v>414586.1703687202</v>
       </c>
     </row>
   </sheetData>
@@ -26735,10 +26737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>377.7436642170866</v>
@@ -26768,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26957,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26990,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503742</v>
+        <v>520.2256578503744</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>232.6531262715007</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -27391,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>113.190730961331</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27424,10 +27426,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -27439,13 +27441,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27539,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>107.5829646831824</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27558,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27579,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27594,16 +27596,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>164.1238617937561</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>273.5807953765697</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -27634,7 +27636,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>19.58227584217838</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>171.4429748595358</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27792,10 +27794,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853699</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,22 +27818,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801578</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>185.9625171169744</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27840,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,22 +27855,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>43.02968446384028</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>115.6719205451828</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
@@ -27916,10 +27918,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -28020,7 +28022,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28029,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>40.32635200869791</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,25 +28055,25 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>230.8001322727207</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31045,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L2" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I3" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554468</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081578</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396477</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479578</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813578</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31513,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31625,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -32084,7 +32086,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32333,7 +32335,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
@@ -32552,7 +32554,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
         <v>508.9565619138796</v>
@@ -32789,7 +32791,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138796</v>
@@ -32807,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33263,7 +33265,7 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138796</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33655,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T35" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33807,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P37" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -34451,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34696,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K2" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624591</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>410.005506727916</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735647</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.9372285181311</v>
+        <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.223041434342</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,7 +35014,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,16 +35026,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735647</v>
+        <v>220.2054057751875</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35185,13 +35187,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35261,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>439.8839133355128</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>130.3926104730635</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L11" t="n">
-        <v>873.2513289427826</v>
+        <v>674.9245771183475</v>
       </c>
       <c r="M11" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N11" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>575.5896386552608</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q11" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
         <v>125.3296184152072</v>
@@ -35644,13 +35646,13 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>988.4346493230593</v>
@@ -35659,16 +35661,16 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882191</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P14" t="n">
-        <v>714.8632233647902</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q14" t="n">
         <v>250.7943048037195</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,7 +35734,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35887,10 +35889,10 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>873.2513289427826</v>
+        <v>625.7042053200619</v>
       </c>
       <c r="M17" t="n">
-        <v>740.8875257003384</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
         <v>989.6487598248956</v>
@@ -35981,7 +35983,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36121,19 +36123,19 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L20" t="n">
         <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>740.8875257003384</v>
       </c>
       <c r="N20" t="n">
-        <v>798.7564048937555</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
         <v>398.7619862193719</v>
@@ -36200,7 +36202,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
         <v>370.4021821340054</v>
@@ -36437,7 +36439,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340054</v>
@@ -36455,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
         <v>873.2513289427826</v>
@@ -36604,19 +36606,19 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N26" t="n">
-        <v>742.101636202175</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>398.7619862193719</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>431.5324544115806</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36835,7 +36837,7 @@
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>625.7042053200628</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
@@ -36844,7 +36846,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O29" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282446</v>
       </c>
       <c r="P29" t="n">
         <v>398.7619862193719</v>
@@ -36911,7 +36913,7 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340054</v>
@@ -37081,7 +37083,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O32" t="n">
-        <v>641.3060585282446</v>
+        <v>575.5896386552608</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193719</v>
@@ -37090,7 +37092,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37303,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K35" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427827</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>799.8889987915996</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248957</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908547</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R35" t="n">
-        <v>89.2320208001448</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O38" t="n">
-        <v>888.8531821509645</v>
+        <v>641.3060585282437</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>89.2320208001448</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>470.4443441954251</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L41" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M41" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N41" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M44" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N44" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>641.3060585282437</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38099,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1912315.560314278</v>
+        <v>1906593.948346391</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6654055.582836239</v>
+        <v>6654055.58283624</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095095</v>
+        <v>806345.8827095093</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>150.0807153919799</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -673,7 +673,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>134.4552371482124</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -819,13 +819,13 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>41.03250833502995</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>34.45403149117948</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -834,10 +834,10 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>109.1530462869109</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,25 +943,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>111.0285509902374</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -1053,19 +1053,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.389005322401447</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>155.2114886365809</v>
       </c>
     </row>
     <row r="8">
@@ -1138,22 +1138,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>214.9157639647052</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>100.776399812475</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>59.72683757586846</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>94.63926978364032</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>106.2755841489812</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>189.7690253314419</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>52.04432991692011</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589016</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1773,10 +1773,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1812,19 +1812,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>204.8429981867602</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1833,7 +1833,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>144.7268717888065</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2004,22 +2004,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>0.02512141542768631</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
         <v>96.35242040983809</v>
@@ -2058,16 +2058,16 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>21.06047827574926</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>29.74310329855294</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>219.5489492761692</v>
+        <v>59.90320919298912</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2307,7 +2307,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2478,13 +2478,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>7.601081015447265</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>67.41386939711252</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2715,25 +2715,25 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>109.0187960410209</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>189.7690253314419</v>
@@ -2769,7 +2769,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>209.0900394911172</v>
       </c>
     </row>
     <row r="29">
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>17.25588147840188</v>
       </c>
       <c r="G31" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,25 +2997,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>157.0537370306392</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292547</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,7 +3322,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
-        <v>250.995171958902</v>
+        <v>250.9951719589025</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3365,7 +3365,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,10 +3392,10 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T36" t="n">
         <v>190.7165703189231</v>
@@ -3426,10 +3426,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>114.4746605491561</v>
+        <v>77.31354443380475</v>
       </c>
       <c r="U37" t="n">
         <v>286.2118382056129</v>
@@ -3562,7 +3562,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
         <v>349.240968717413</v>
@@ -3660,25 +3660,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,13 +3711,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3726,10 +3726,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>212.5276795955112</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3757,7 +3757,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>294.6077643873211</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3900,22 +3900,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>173.6268892744757</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>13.02719212039631</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>90.41948680756549</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4200,10 +4200,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,19 +4306,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1995.909162857192</v>
+        <v>1233.603060210037</v>
       </c>
       <c r="C2" t="n">
-        <v>1626.94664591678</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G2" t="n">
         <v>53.94298182036445</v>
@@ -4330,13 +4330,13 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533139</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733124</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4357,25 +4357,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2561.335720161442</v>
       </c>
       <c r="T2" t="n">
-        <v>2520.971603332393</v>
+        <v>2561.335720161442</v>
       </c>
       <c r="U2" t="n">
-        <v>2520.971603332393</v>
+        <v>2307.573934799534</v>
       </c>
       <c r="V2" t="n">
-        <v>2520.971603332393</v>
+        <v>1976.511047455963</v>
       </c>
       <c r="W2" t="n">
-        <v>2520.971603332393</v>
+        <v>1623.742392185849</v>
       </c>
       <c r="X2" t="n">
-        <v>2147.505845071313</v>
+        <v>1623.742392185849</v>
       </c>
       <c r="Y2" t="n">
-        <v>2147.505845071313</v>
+        <v>1233.603060210037</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4448,10 +4448,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>559.1928012785273</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>663.910013048764</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>517.0200655508536</v>
       </c>
       <c r="G4" t="n">
-        <v>53.94298182036445</v>
+        <v>348.0202652891861</v>
       </c>
       <c r="H4" t="n">
-        <v>53.94298182036445</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1763.586886263858</v>
+        <v>1591.868758816787</v>
       </c>
       <c r="C5" t="n">
-        <v>1394.624369323446</v>
+        <v>1222.906241876376</v>
       </c>
       <c r="D5" t="n">
-        <v>1036.358670716696</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E5" t="n">
-        <v>1036.358670716696</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,7 +4570,7 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
         <v>881.2824271224076</v>
@@ -4591,28 +4591,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2465.942913862886</v>
+        <v>2584.999039512932</v>
       </c>
       <c r="T5" t="n">
-        <v>2247.308246834948</v>
+        <v>2584.999039512932</v>
       </c>
       <c r="U5" t="n">
-        <v>2247.308246834948</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="V5" t="n">
-        <v>2247.308246834948</v>
+        <v>2331.237254151024</v>
       </c>
       <c r="W5" t="n">
-        <v>2247.308246834948</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="X5" t="n">
-        <v>1873.842488573869</v>
+        <v>1978.468598880909</v>
       </c>
       <c r="Y5" t="n">
-        <v>1873.842488573869</v>
+        <v>1978.468598880909</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C6" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036423</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204941</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T6" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U6" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V6" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W6" t="n">
         <v>1572.325111207638</v>
@@ -4701,16 +4701,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
         <v>53.94298182036445</v>
@@ -4764,13 +4764,13 @@
         <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>507.3364050629041</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4780,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1763.586886263858</v>
+        <v>1039.703785687808</v>
       </c>
       <c r="C8" t="n">
-        <v>1394.624369323446</v>
+        <v>670.7412687473968</v>
       </c>
       <c r="D8" t="n">
-        <v>1036.358670716696</v>
+        <v>670.7412687473968</v>
       </c>
       <c r="E8" t="n">
-        <v>1036.358670716696</v>
+        <v>284.9530161491526</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
         <v>463.9616490733126</v>
@@ -4828,28 +4828,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T8" t="n">
-        <v>2540.326058303791</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="U8" t="n">
-        <v>2540.326058303791</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="V8" t="n">
-        <v>2540.326058303791</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="W8" t="n">
-        <v>2540.326058303791</v>
+        <v>2189.908715988822</v>
       </c>
       <c r="X8" t="n">
-        <v>2540.326058303791</v>
+        <v>1816.442957727742</v>
       </c>
       <c r="Y8" t="n">
-        <v>2150.18672632798</v>
+        <v>1426.30362575193</v>
       </c>
     </row>
     <row r="9">
@@ -4886,22 +4886,22 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>266.2060027641994</v>
       </c>
       <c r="L9" t="n">
-        <v>713.8062203571349</v>
+        <v>670.8219208598713</v>
       </c>
       <c r="M9" t="n">
-        <v>1237.953133915166</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>149.5382038240415</v>
+        <v>667.7988452409105</v>
       </c>
       <c r="C10" t="n">
-        <v>149.5382038240415</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D10" t="n">
-        <v>149.5382038240415</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E10" t="n">
-        <v>149.5382038240415</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F10" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G10" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>149.5382038240415</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
         <v>53.94298182036445</v>
@@ -4995,19 +4995,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V10" t="n">
-        <v>438.9553738610022</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W10" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X10" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y10" t="n">
-        <v>149.5382038240415</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F11" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G11" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H11" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I11" t="n">
         <v>95.56103444839441</v>
@@ -5044,10 +5044,10 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K11" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1453.840519464783</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M11" t="n">
         <v>2432.390822294612</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>908.9588510157366</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="C13" t="n">
-        <v>908.9588510157366</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="D13" t="n">
-        <v>801.6097761177758</v>
+        <v>536.5812623108401</v>
       </c>
       <c r="E13" t="n">
-        <v>653.6966825353827</v>
+        <v>388.668168728447</v>
       </c>
       <c r="F13" t="n">
-        <v>506.8067350374723</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G13" t="n">
-        <v>339.1038984121913</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H13" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I13" t="n">
         <v>95.56103444839441</v>
@@ -5223,28 +5223,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R13" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S13" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T13" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1453.060509258584</v>
+        <v>1490.320936281945</v>
       </c>
       <c r="V13" t="n">
-        <v>1198.376021052697</v>
+        <v>1235.636448076058</v>
       </c>
       <c r="W13" t="n">
-        <v>908.9588510157366</v>
+        <v>946.2192780390972</v>
       </c>
       <c r="X13" t="n">
-        <v>908.9588510157366</v>
+        <v>718.2297271410798</v>
       </c>
       <c r="Y13" t="n">
-        <v>908.9588510157366</v>
+        <v>718.2297271410798</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E14" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F14" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H14" t="n">
         <v>137.5579332089257</v>
@@ -5278,28 +5278,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J14" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K14" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L14" t="n">
-        <v>1482.778354750621</v>
+        <v>1521.86673817257</v>
       </c>
       <c r="M14" t="n">
-        <v>2461.32865758045</v>
+        <v>2055.398642844494</v>
       </c>
       <c r="N14" t="n">
-        <v>3441.080929807096</v>
+        <v>2602.177459903276</v>
       </c>
       <c r="O14" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P14" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q14" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R14" t="n">
         <v>4778.05172241972</v>
@@ -5311,19 +5311,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V14" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X14" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y14" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="15">
@@ -5333,25 +5333,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C15" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I15" t="n">
         <v>95.56103444839441</v>
@@ -5375,22 +5375,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P15" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q15" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R15" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S15" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T15" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U15" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V15" t="n">
         <v>1808.657265216076</v>
@@ -5412,16 +5412,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>245.6776738607301</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="C16" t="n">
-        <v>245.6776738607301</v>
+        <v>540.4807149410336</v>
       </c>
       <c r="D16" t="n">
-        <v>95.56103444839441</v>
+        <v>390.3640755286979</v>
       </c>
       <c r="E16" t="n">
-        <v>95.56103444839441</v>
+        <v>242.4509819463048</v>
       </c>
       <c r="F16" t="n">
         <v>95.56103444839441</v>
@@ -5460,28 +5460,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R16" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S16" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1453.060509258584</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="U16" t="n">
-        <v>1163.957642384228</v>
+        <v>1667.240599230347</v>
       </c>
       <c r="V16" t="n">
-        <v>909.2731541783409</v>
+        <v>1460.328479849782</v>
       </c>
       <c r="W16" t="n">
-        <v>619.8559841413803</v>
+        <v>1170.911309812821</v>
       </c>
       <c r="X16" t="n">
-        <v>391.866433243363</v>
+        <v>942.9217589148035</v>
       </c>
       <c r="Y16" t="n">
-        <v>245.6776738607301</v>
+        <v>722.1291797712734</v>
       </c>
     </row>
     <row r="17">
@@ -5518,25 +5518,25 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>618.2595390972663</v>
+        <v>685.1208104866375</v>
       </c>
       <c r="L17" t="n">
-        <v>1237.706702364128</v>
+        <v>1549.639626139992</v>
       </c>
       <c r="M17" t="n">
-        <v>2216.257005193956</v>
+        <v>2528.189928969821</v>
       </c>
       <c r="N17" t="n">
-        <v>3196.009277420603</v>
+        <v>3507.942201196468</v>
       </c>
       <c r="O17" t="n">
-        <v>4075.973927750058</v>
+        <v>4010.914672075804</v>
       </c>
       <c r="P17" t="n">
-        <v>4470.748294107236</v>
+        <v>4405.689038432983</v>
       </c>
       <c r="Q17" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R17" t="n">
         <v>4778.05172241972</v>
@@ -5551,7 +5551,7 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
         <v>3524.421286991189</v>
@@ -5649,22 +5649,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>511.9395339702917</v>
+        <v>506.832110204571</v>
       </c>
       <c r="C19" t="n">
-        <v>343.0033510423848</v>
+        <v>506.832110204571</v>
       </c>
       <c r="D19" t="n">
-        <v>192.886711630049</v>
+        <v>506.832110204571</v>
       </c>
       <c r="E19" t="n">
-        <v>192.886711630049</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="F19" t="n">
-        <v>192.886711630049</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G19" t="n">
-        <v>192.886711630049</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H19" t="n">
         <v>192.886711630049</v>
@@ -5706,19 +5706,19 @@
         <v>1453.060509258584</v>
       </c>
       <c r="U19" t="n">
-        <v>1453.060509258584</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V19" t="n">
-        <v>1431.78729887904</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W19" t="n">
-        <v>1142.370128842079</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="X19" t="n">
-        <v>914.3805779440615</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="Y19" t="n">
-        <v>693.5879988005314</v>
+        <v>688.4805750348107</v>
       </c>
     </row>
     <row r="20">
@@ -5752,28 +5752,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J20" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L20" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M20" t="n">
-        <v>2216.257005193956</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N20" t="n">
-        <v>3196.009277420603</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O20" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P20" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q20" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5834,7 +5834,7 @@
         <v>189.2383039390118</v>
       </c>
       <c r="K21" t="n">
-        <v>427.502502919359</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L21" t="n">
         <v>794.2006632320243</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>391.866433243363</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C22" t="n">
-        <v>222.930250315456</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D22" t="n">
-        <v>222.930250315456</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E22" t="n">
-        <v>222.930250315456</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F22" t="n">
-        <v>222.930250315456</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G22" t="n">
-        <v>222.930250315456</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H22" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I22" t="n">
         <v>95.56103444839441</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S22" t="n">
-        <v>1674.827124689058</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T22" t="n">
-        <v>1453.060509258584</v>
+        <v>1895.835173990573</v>
       </c>
       <c r="U22" t="n">
-        <v>1163.957642384228</v>
+        <v>1606.732307116217</v>
       </c>
       <c r="V22" t="n">
-        <v>909.2731541783409</v>
+        <v>1352.04781891033</v>
       </c>
       <c r="W22" t="n">
-        <v>619.8559841413803</v>
+        <v>1062.630648873369</v>
       </c>
       <c r="X22" t="n">
-        <v>391.866433243363</v>
+        <v>834.6410979753522</v>
       </c>
       <c r="Y22" t="n">
-        <v>391.866433243363</v>
+        <v>613.848518831822</v>
       </c>
     </row>
     <row r="23">
@@ -5989,28 +5989,28 @@
         <v>95.56103444839441</v>
       </c>
       <c r="J23" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L23" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M23" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N23" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O23" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P23" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q23" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R23" t="n">
         <v>4778.05172241972</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>270.9417306852383</v>
+        <v>500.2948715744233</v>
       </c>
       <c r="C25" t="n">
-        <v>270.9417306852383</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="D25" t="n">
-        <v>270.9417306852383</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="E25" t="n">
-        <v>263.2638710736754</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="F25" t="n">
-        <v>263.2638710736754</v>
+        <v>331.3586886465164</v>
       </c>
       <c r="G25" t="n">
-        <v>95.56103444839441</v>
+        <v>163.6558520212353</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.57685067423</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1420.142636483171</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570255</v>
+        <v>1130.72546644621</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590082</v>
+        <v>902.7359155481931</v>
       </c>
       <c r="Y25" t="n">
-        <v>452.5901955154781</v>
+        <v>681.943336404663</v>
       </c>
     </row>
     <row r="26">
@@ -6214,49 +6214,49 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
         <v>284.4401654074198</v>
       </c>
       <c r="K26" t="n">
-        <v>939.1634975427194</v>
+        <v>913.1101661838561</v>
       </c>
       <c r="L26" t="n">
-        <v>1803.682313196074</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M26" t="n">
-        <v>2782.232616025903</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N26" t="n">
-        <v>3329.011433084685</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O26" t="n">
-        <v>3831.983903964022</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P26" t="n">
-        <v>4226.7582703212</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,43 +6281,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089899</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320249</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M27" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N27" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O27" t="n">
         <v>2125.96131142685</v>
@@ -6326,7 +6326,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
         <v>2593.958107142068</v>
@@ -6335,16 +6335,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W27" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
         <v>1346.568408282342</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>619.8559841413803</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="C28" t="n">
-        <v>450.9198012134734</v>
+        <v>559.5976972681534</v>
       </c>
       <c r="D28" t="n">
-        <v>340.7998052124422</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="E28" t="n">
-        <v>192.886711630049</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="F28" t="n">
-        <v>192.886711630049</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G28" t="n">
-        <v>192.886711630049</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6408,28 +6408,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S28" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T28" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1163.957642384228</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>909.2731541783409</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W28" t="n">
-        <v>619.8559841413803</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X28" t="n">
-        <v>619.8559841413803</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y28" t="n">
-        <v>619.8559841413803</v>
+        <v>559.5976972681534</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C29" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551613</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001593</v>
+        <v>435.1415336001587</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K29" t="n">
-        <v>618.2595390972663</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L29" t="n">
-        <v>1482.778354750621</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M29" t="n">
-        <v>2461.32865758045</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N29" t="n">
-        <v>3441.080929807096</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O29" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P29" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q29" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S29" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T29" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U29" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V29" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W29" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X29" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y29" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="30">
@@ -6518,19 +6518,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C30" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
@@ -6542,10 +6542,10 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L30" t="n">
         <v>794.2006632320242</v>
@@ -6560,22 +6560,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P30" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q30" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R30" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S30" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T30" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="31">
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>824.3287722635405</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C31" t="n">
-        <v>655.3925893356336</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D31" t="n">
-        <v>655.3925893356336</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E31" t="n">
-        <v>507.4794957532405</v>
+        <v>112.9912177599115</v>
       </c>
       <c r="F31" t="n">
-        <v>360.5895482553301</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H31" t="n">
-        <v>192.8867116300491</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I31" t="n">
         <v>95.56103444839442</v>
@@ -6645,28 +6645,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R31" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S31" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T31" t="n">
-        <v>1674.827124689058</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1674.827124689058</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V31" t="n">
-        <v>1674.827124689058</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W31" t="n">
-        <v>1385.409954652097</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X31" t="n">
-        <v>1226.76981623731</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y31" t="n">
-        <v>1005.97723709378</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="32">
@@ -6679,73 +6679,73 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551613</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001578</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K32" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L32" t="n">
-        <v>1482.778354750621</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M32" t="n">
-        <v>2461.32865758045</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N32" t="n">
-        <v>3441.080929807096</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O32" t="n">
-        <v>4010.914672075804</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P32" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188665</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L33" t="n">
         <v>794.2006632320242</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J34" t="n">
         <v>140.68366689533</v>
@@ -6885,13 +6885,13 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S34" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T34" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U34" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
         <v>1015.408799357142</v>
@@ -6919,55 +6919,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551615</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G35" t="n">
-        <v>435.141533600158</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089252</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.44016540742</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972665</v>
+        <v>913.1101661838561</v>
       </c>
       <c r="L35" t="n">
-        <v>1482.778354750621</v>
+        <v>1364.144379432265</v>
       </c>
       <c r="M35" t="n">
-        <v>2274.668463554305</v>
+        <v>1897.67628410419</v>
       </c>
       <c r="N35" t="n">
-        <v>3254.420735780952</v>
+        <v>2877.428556330836</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660289</v>
+        <v>3757.393206660291</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107235</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862917</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,43 +6992,43 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973199</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161929</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549417</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494862</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763712</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089893</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468568</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390115</v>
+        <v>189.238303939012</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193591</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320238</v>
+        <v>794.2006632320246</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008794</v>
+        <v>1715.000032008795</v>
       </c>
       <c r="O36" t="n">
         <v>2125.96131142685</v>
@@ -7037,7 +7037,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q36" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R36" t="n">
         <v>2593.958107142068</v>
@@ -7046,7 +7046,7 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T36" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U36" t="n">
         <v>2043.809373447819</v>
@@ -7055,13 +7055,13 @@
         <v>1808.657265216076</v>
       </c>
       <c r="W36" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="37">
@@ -7071,28 +7071,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>95.56103444839441</v>
+        <v>414.6138567886371</v>
       </c>
       <c r="C37" t="n">
-        <v>95.56103444839441</v>
+        <v>245.6776738607302</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J37" t="n">
         <v>140.68366689533</v>
@@ -7101,13 +7101,13 @@
         <v>344.6708498442064</v>
       </c>
       <c r="L37" t="n">
-        <v>661.2306482927027</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M37" t="n">
-        <v>1005.387693892252</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N37" t="n">
-        <v>1346.796070598117</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
         <v>1646.12566951853</v>
@@ -7119,28 +7119,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689059</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="T37" t="n">
-        <v>1559.196154437386</v>
+        <v>1878.248976777628</v>
       </c>
       <c r="U37" t="n">
-        <v>1270.093287563029</v>
+        <v>1589.146109903272</v>
       </c>
       <c r="V37" t="n">
-        <v>1015.408799357142</v>
+        <v>1334.461621697385</v>
       </c>
       <c r="W37" t="n">
-        <v>725.9916293201816</v>
+        <v>1045.044451660424</v>
       </c>
       <c r="X37" t="n">
-        <v>498.0020784221642</v>
+        <v>817.0549007624069</v>
       </c>
       <c r="Y37" t="n">
-        <v>277.2094992786341</v>
+        <v>596.2623216188767</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C38" t="n">
         <v>2005.253839749764</v>
@@ -7159,10 +7159,10 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E38" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,55 +7171,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K38" t="n">
-        <v>618.2595390972663</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L38" t="n">
-        <v>1482.778354750621</v>
+        <v>1898.858917622688</v>
       </c>
       <c r="M38" t="n">
-        <v>2461.32865758045</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N38" t="n">
-        <v>3441.080929807096</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107236</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
       </c>
       <c r="V38" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W38" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X38" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y38" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="39">
@@ -7229,37 +7229,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C39" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D39" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E39" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F39" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089891</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H39" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390117</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K39" t="n">
         <v>427.5025029193589</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320241</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7295,10 +7295,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X39" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y39" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3508.406158038192</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C40" t="n">
-        <v>3508.406158038192</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D40" t="n">
-        <v>3358.289518625857</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E40" t="n">
-        <v>3210.376425043463</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F40" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G40" t="n">
-        <v>3063.486477545553</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I40" t="n">
-        <v>2917.269290763411</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J40" t="n">
-        <v>2962.391923210347</v>
+        <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>3166.379106159223</v>
+        <v>344.6708498442064</v>
       </c>
       <c r="L40" t="n">
-        <v>3482.938904607719</v>
+        <v>661.2306482927024</v>
       </c>
       <c r="M40" t="n">
-        <v>3827.095950207268</v>
+        <v>1005.387693892251</v>
       </c>
       <c r="N40" t="n">
-        <v>4168.504326913133</v>
+        <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>4467.833925833546</v>
+        <v>1646.12566951853</v>
       </c>
       <c r="P40" t="n">
-        <v>4700.441426267205</v>
+        <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="R40" t="n">
-        <v>4778.05172241972</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S40" t="n">
-        <v>4778.05172241972</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T40" t="n">
-        <v>4556.285106989246</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>4267.182240114889</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V40" t="n">
-        <v>4012.497751909003</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W40" t="n">
-        <v>3723.080581872042</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X40" t="n">
-        <v>3508.406158038192</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y40" t="n">
-        <v>3508.406158038192</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C41" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F41" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001584</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
       </c>
       <c r="I41" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
         <v>451.8458144277729</v>
@@ -7426,37 +7426,37 @@
         <v>2637.914081542188</v>
       </c>
       <c r="O41" t="n">
-        <v>3482.142110232731</v>
+        <v>3517.878731871643</v>
       </c>
       <c r="P41" t="n">
-        <v>4195.497197679677</v>
+        <v>4231.233819318589</v>
       </c>
       <c r="Q41" t="n">
-        <v>4653.975400188665</v>
+        <v>4689.712021827577</v>
       </c>
       <c r="R41" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S41" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T41" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U41" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V41" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W41" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X41" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y41" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="42">
@@ -7466,19 +7466,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C42" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D42" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E42" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F42" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
         <v>205.0702204089889</v>
@@ -7487,13 +7487,13 @@
         <v>114.5683260468565</v>
       </c>
       <c r="I42" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390118</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193589</v>
       </c>
       <c r="L42" t="n">
         <v>794.2006632320242</v>
@@ -7508,22 +7508,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R42" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S42" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T42" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U42" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V42" t="n">
         <v>1808.657265216076</v>
@@ -7532,10 +7532,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X42" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y42" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="43">
@@ -7545,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1023.336921276364</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C43" t="n">
-        <v>854.4007383484569</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D43" t="n">
-        <v>704.2840989361212</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E43" t="n">
-        <v>556.371005353728</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F43" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G43" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I43" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J43" t="n">
         <v>140.68366689533</v>
@@ -7596,25 +7596,25 @@
         <v>1956.343466104704</v>
       </c>
       <c r="S43" t="n">
-        <v>1956.343466104704</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T43" t="n">
-        <v>1956.343466104704</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U43" t="n">
-        <v>1956.343466104704</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V43" t="n">
-        <v>1943.184686185112</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W43" t="n">
-        <v>1653.767516148151</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X43" t="n">
-        <v>1425.777965250134</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y43" t="n">
-        <v>1204.985386106604</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="44">
@@ -7624,7 +7624,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C44" t="n">
         <v>2005.253839749764</v>
@@ -7633,7 +7633,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F44" t="n">
         <v>850.213983755162</v>
@@ -7654,22 +7654,22 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L44" t="n">
-        <v>1557.603359811481</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M44" t="n">
-        <v>2091.135264483406</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N44" t="n">
-        <v>2637.914081542188</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O44" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P44" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q44" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R44" t="n">
         <v>4778.05172241972</v>
@@ -7684,16 +7684,16 @@
         <v>4208.252829604874</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W44" t="n">
         <v>3524.421286991189</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="45">
@@ -7733,7 +7733,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>390.3640755286979</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C46" t="n">
-        <v>390.3640755286979</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="D46" t="n">
-        <v>390.3640755286979</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="E46" t="n">
-        <v>242.4509819463048</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="F46" t="n">
-        <v>95.56103444839441</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="G46" t="n">
         <v>95.56103444839441</v>
@@ -7830,28 +7830,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R46" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S46" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T46" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U46" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V46" t="n">
-        <v>999.1036114208126</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W46" t="n">
-        <v>709.6864413838521</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X46" t="n">
-        <v>481.6968904858347</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y46" t="n">
-        <v>481.6968904858347</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
   </sheetData>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.02694854156</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599048</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>50.07369958270195</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719084</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>166.6588033951786</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8692,13 +8692,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>219.3344627260154</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M11" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8926,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>288.0478149561023</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>133.2530576400246</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>67.53663776704161</v>
       </c>
       <c r="L17" t="n">
-        <v>170.1140909277297</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M17" t="n">
         <v>449.5135334928325</v>
@@ -9178,7 +9178,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O17" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -9187,7 +9187,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>201.9664098701116</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,31 +9637,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L23" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M23" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9877,28 +9877,28 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>297.8289162490806</v>
       </c>
       <c r="L26" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>180.7381496078611</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>449.5135334928325</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>133.2530576400255</v>
+        <v>219.3344627260163</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,28 +10348,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>67.53663776704173</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10588,19 +10588,19 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>297.8289162490806</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>260.9678829613728</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>344.7025836476838</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>133.2530576400246</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792094</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>29.61882225792044</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>42.33988886923116</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2118382056129</v>
+        <v>234.1675082886928</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -23661,10 +23661,10 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>166.0258082590282</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>47.29464513706782</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>73.85778156328828</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,22 +23892,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4088412311415</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23946,16 +23946,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>231.0771650480787</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>115.0119116157678</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>159.6457400831801</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24195,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24366,13 +24366,13 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>138.8328816311219</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,7 +24381,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>77.34114551720826</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24603,25 +24603,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>39.59667697719141</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>9.494613860977552</v>
       </c>
     </row>
     <row r="29">
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24849,16 +24849,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>128.1651665445294</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,25 +24885,25 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>68.65591835839794</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25125,7 +25125,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S34" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25314,10 +25314,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>105.0742887270131</v>
+        <v>142.2354048423645</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25548,25 +25548,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
         <v>96.35242040983809</v>
@@ -25599,13 +25599,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25614,10 +25614,10 @@
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>13.18197579352596</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25788,22 +25788,22 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
         <v>96.35242040983809</v>
@@ -25836,16 +25836,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>16.14213605696617</v>
       </c>
       <c r="T43" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>239.1104512034317</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>89.41249337437181</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
@@ -26031,13 +26031,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>45.39044159700434</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523276</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="11">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>878023.6515523276</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
   </sheetData>
@@ -26313,43 +26313,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554203.1946583914</v>
+        <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
         <v>554203.1946583911</v>
       </c>
       <c r="D2" t="n">
-        <v>554203.1946583908</v>
+        <v>554203.1946583909</v>
       </c>
       <c r="E2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="F2" t="n">
         <v>536060.4122974273</v>
       </c>
-      <c r="F2" t="n">
-        <v>536060.4122974279</v>
-      </c>
       <c r="G2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="H2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974272</v>
       </c>
       <c r="I2" t="n">
-        <v>536060.4122974278</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="J2" t="n">
         <v>536060.4122974277</v>
       </c>
       <c r="K2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="L2" t="n">
         <v>536060.4122974275</v>
       </c>
-      <c r="L2" t="n">
-        <v>536060.4122974274</v>
-      </c>
       <c r="M2" t="n">
-        <v>536060.4122974277</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="N2" t="n">
-        <v>536060.4122974279</v>
+        <v>536060.4122974273</v>
       </c>
       <c r="O2" t="n">
         <v>536060.4122974275</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934066</v>
+        <v>727377.4139934067</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>129642.3148389449</v>
+        <v>129642.3148389447</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>25090.7236749938</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="G4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="H4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="I4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.7236749938</v>
       </c>
       <c r="J4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="K4" t="n">
         <v>25090.72367499382</v>
       </c>
       <c r="L4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
-        <v>25090.72367499378</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="N4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="O4" t="n">
+        <v>25090.72367499382</v>
+      </c>
+      <c r="P4" t="n">
         <v>25090.72367499381</v>
-      </c>
-      <c r="O4" t="n">
-        <v>25090.7236749938</v>
-      </c>
-      <c r="P4" t="n">
-        <v>25090.7236749938</v>
       </c>
     </row>
     <row r="5">
@@ -26493,22 +26493,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="K5" t="n">
         <v>96383.51825371366</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-319688.268547294</v>
+        <v>-319688.2685472942</v>
       </c>
       <c r="C6" t="n">
         <v>270279.6106672501</v>
       </c>
       <c r="D6" t="n">
-        <v>270279.6106672499</v>
+        <v>270279.61066725</v>
       </c>
       <c r="E6" t="n">
-        <v>-312791.2436246867</v>
+        <v>-313463.1985269447</v>
       </c>
       <c r="F6" t="n">
-        <v>414586.1703687204</v>
+        <v>413914.2154664619</v>
       </c>
       <c r="G6" t="n">
-        <v>414586.1703687203</v>
+        <v>413914.2154664621</v>
       </c>
       <c r="H6" t="n">
-        <v>414586.1703687202</v>
+        <v>413914.2154664618</v>
       </c>
       <c r="I6" t="n">
-        <v>414586.1703687203</v>
+        <v>413914.2154664621</v>
       </c>
       <c r="J6" t="n">
-        <v>238162.9511761272</v>
+        <v>237490.9962738692</v>
       </c>
       <c r="K6" t="n">
-        <v>414586.17036872</v>
+        <v>413914.2154664622</v>
       </c>
       <c r="L6" t="n">
-        <v>414586.17036872</v>
+        <v>413914.2154664621</v>
       </c>
       <c r="M6" t="n">
-        <v>284943.8555297754</v>
+        <v>284271.9006275171</v>
       </c>
       <c r="N6" t="n">
-        <v>414586.1703687205</v>
+        <v>413914.2154664618</v>
       </c>
       <c r="O6" t="n">
-        <v>414586.1703687201</v>
+        <v>413914.2154664621</v>
       </c>
       <c r="P6" t="n">
-        <v>414586.1703687202</v>
+        <v>413914.2154664623</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170866</v>
@@ -26770,7 +26770,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="M3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="N3" t="n">
         <v>1089.776700593298</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762117</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26992,7 +26992,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>232.6531262715007</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27393,7 +27393,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
@@ -27426,28 +27426,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>39.96047566075907</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27539,13 +27539,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>107.5829646831824</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>111.9799311553897</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27554,13 +27554,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,10 +27581,10 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>273.5807953765697</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27663,25 +27663,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>63.38716181873413</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -27773,19 +27773,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>171.4429748595358</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>167.3098022590509</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>63.37316471551392</v>
       </c>
     </row>
     <row r="8">
@@ -27858,22 +27858,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>191.9602817770062</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27900,25 +27900,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>115.6719205451828</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>120.1051426060688</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>40.32635200869791</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,7 +28055,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
@@ -28067,13 +28067,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31515,13 +31515,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31539,22 +31539,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31627,16 +31627,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,13 +31697,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31712,7 +31712,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31858,7 +31858,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32554,10 +32554,10 @@
         <v>221.4611312026438</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -33046,7 +33046,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,7 +33280,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q30" t="n">
         <v>299.2156706987487</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
         <v>44.86703772844668</v>
@@ -33657,40 +33657,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003812</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095025</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781691</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U35" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,46 +33727,46 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H36" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026439</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970251</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33809,43 +33809,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K37" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q37" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
         <v>0.1071911508780295</v>
@@ -33994,7 +33994,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
@@ -34231,7 +34231,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
@@ -34453,7 +34453,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233475</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,10 +34777,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751875</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35187,13 +35187,13 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.997506289869</v>
+        <v>153.9975062898689</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35254,7 +35254,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624596</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35266,13 +35266,13 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3926104730635</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35412,13 +35412,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>674.9245771183475</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M11" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N11" t="n">
         <v>552.3018354129115</v>
@@ -35506,7 +35506,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35646,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>873.2513289427826</v>
+        <v>743.6379293484345</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O14" t="n">
-        <v>641.3060585282437</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35886,10 +35886,10 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>404.7279243224421</v>
       </c>
       <c r="L17" t="n">
-        <v>625.7042053200619</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M17" t="n">
         <v>988.4346493230593</v>
@@ -35898,7 +35898,7 @@
         <v>989.6487598248956</v>
       </c>
       <c r="O17" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
         <v>398.7619862193719</v>
@@ -35907,7 +35907,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L20" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M20" t="n">
-        <v>740.8875257003384</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>888.8531821509645</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36202,10 +36202,10 @@
         <v>94.6235045359771</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L23" t="n">
-        <v>873.2513289427826</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M23" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N23" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36597,28 +36597,28 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265652</v>
+        <v>635.0202028044811</v>
       </c>
       <c r="L26" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>431.5324544115806</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36694,7 +36694,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L29" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M29" t="n">
         <v>988.4346493230593</v>
       </c>
       <c r="N29" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>641.3060585282446</v>
+        <v>727.3874636142355</v>
       </c>
       <c r="P29" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q29" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,7 +36928,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q30" t="n">
         <v>159.2338966127272</v>
@@ -37068,28 +37068,28 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L32" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N32" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>575.5896386552608</v>
+        <v>852.7555845359029</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554006</v>
+        <v>635.0202028044811</v>
       </c>
       <c r="L35" t="n">
-        <v>873.2513289427827</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>799.8889987915996</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248957</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882193</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908547</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,25 +37384,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597716</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013293</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
         <v>159.2338966127272</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
-        <v>319.7573721701982</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M37" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N37" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>800.2926980400159</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>641.3060585282437</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37642,7 +37642,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,7 +37794,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O41" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P41" t="n">
         <v>720.5606943908545</v>
@@ -37803,7 +37803,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014572</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37879,7 +37879,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>485.2089366502526</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302268</v>
@@ -38031,7 +38031,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O44" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P44" t="n">
         <v>720.5606943908545</v>
@@ -38040,7 +38040,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R44" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38101,7 +38101,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013292</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_27.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_7_27.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1906593.948346391</v>
+        <v>1909999.43947084</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>806345.8827095093</v>
+        <v>806345.8827095096</v>
       </c>
     </row>
     <row r="9">
@@ -661,13 +661,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85.46250733513577</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -706,19 +706,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>134.4552371482124</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>34.45403149117948</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>46.80807769362121</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -861,7 +861,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -901,10 +901,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>111.0285509902374</v>
+        <v>15.14483238681421</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1053,13 +1053,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>94.65568569260694</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1116,13 +1116,13 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1141,10 +1141,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>214.9157639647052</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
@@ -1180,22 +1180,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>109.4422623037135</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -1232,7 +1232,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1290,19 +1290,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586846</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>101.7806877295493</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1359,7 +1359,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1530,22 +1530,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>102.8228810500187</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1584,7 +1584,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
-        <v>52.04432991692011</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1596,7 +1596,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1663,7 +1663,7 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9951719589016</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1767,19 +1767,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>7.601081015447265</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1818,13 +1818,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>204.8429981867602</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2001,7 +2001,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
@@ -2010,19 +2010,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.02512141542768631</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>18.26879610203983</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>189.7690253314419</v>
@@ -2064,10 +2064,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534532</v>
       </c>
       <c r="H20" t="n">
         <v>294.6077643873205</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,10 +2250,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>120.6353666620239</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
-        <v>59.90320919298912</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
         <v>286.2118382056129</v>
@@ -2304,7 +2304,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2490,10 +2490,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>67.41386939711252</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2526,13 +2526,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>84.69473660442847</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.921725653453</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2769,10 +2769,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668616</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>209.0900394911172</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2958,10 +2958,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>17.25588147840188</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3006,7 +3006,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>270.0697021486465</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,7 +3186,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>163.6898441249706</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
@@ -3246,7 +3246,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>235.9955072668616</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292547</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,10 +3319,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9951719589025</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3423,7 +3423,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
@@ -3432,19 +3432,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>77.31354443380475</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>129.9278109811834</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3717,10 +3717,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U40" t="n">
-        <v>270.0697021486465</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668612</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417118</v>
       </c>
       <c r="G41" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873211</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3912,7 +3912,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>36.41670903609992</v>
       </c>
       <c r="S43" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
         <v>219.5489492761692</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>120.6353666620239</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>189.7690253314419</v>
@@ -4194,13 +4194,13 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>235.9955072668612</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4306,25 +4306,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.603060210037</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="C2" t="n">
-        <v>864.6405432696254</v>
+        <v>1250.638474227114</v>
       </c>
       <c r="D2" t="n">
-        <v>864.6405432696254</v>
+        <v>892.3727756203639</v>
       </c>
       <c r="E2" t="n">
-        <v>478.8522906713811</v>
+        <v>892.3727756203639</v>
       </c>
       <c r="F2" t="n">
-        <v>67.86638588177355</v>
+        <v>481.3868708307563</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>467.4634667693472</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>140.2687468053501</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4333,10 +4333,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4354,28 +4354,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2561.335720161442</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2561.335720161442</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2307.573934799534</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1976.511047455963</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1623.742392185849</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X2" t="n">
-        <v>1623.742392185849</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="Y2" t="n">
-        <v>1233.603060210037</v>
+        <v>1250.638474227114</v>
       </c>
     </row>
     <row r="3">
@@ -4433,7 +4433,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
         <v>2488.762748073963</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="D4" t="n">
-        <v>698.7120650600564</v>
+        <v>578.0123447940987</v>
       </c>
       <c r="E4" t="n">
-        <v>663.910013048764</v>
+        <v>430.0992512117056</v>
       </c>
       <c r="F4" t="n">
-        <v>517.0200655508536</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="G4" t="n">
-        <v>348.0202652891861</v>
+        <v>283.2093037137952</v>
       </c>
       <c r="H4" t="n">
-        <v>190.2718927217162</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I4" t="n">
-        <v>53.94298182036445</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J4" t="n">
         <v>53.94298182036445</v>
@@ -4509,31 +4509,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="5">
@@ -4543,13 +4543,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1591.868758816787</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>1222.906241876376</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
         <v>478.8522906713811</v>
@@ -4558,13 +4558,13 @@
         <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J5" t="n">
         <v>169.7108380533142</v>
@@ -4579,40 +4579,40 @@
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S5" t="n">
-        <v>2584.999039512932</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="T5" t="n">
-        <v>2584.999039512932</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="U5" t="n">
-        <v>2331.237254151024</v>
+        <v>2681.851280526491</v>
       </c>
       <c r="V5" t="n">
-        <v>2331.237254151024</v>
+        <v>2350.788393182921</v>
       </c>
       <c r="W5" t="n">
-        <v>1978.468598880909</v>
+        <v>1998.019737912806</v>
       </c>
       <c r="X5" t="n">
-        <v>1978.468598880909</v>
+        <v>1624.553979651726</v>
       </c>
       <c r="Y5" t="n">
-        <v>1978.468598880909</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4643,19 +4643,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53.94298182036445</v>
+        <v>318.4909684781774</v>
       </c>
       <c r="C7" t="n">
-        <v>53.94298182036445</v>
+        <v>149.5547855502705</v>
       </c>
       <c r="D7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K7" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W7" t="n">
-        <v>438.7118141694736</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X7" t="n">
-        <v>210.7222632714563</v>
+        <v>500.1394333084171</v>
       </c>
       <c r="Y7" t="n">
-        <v>53.94298182036445</v>
+        <v>500.1394333084171</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1039.703785687808</v>
+        <v>443.7744035713887</v>
       </c>
       <c r="C8" t="n">
-        <v>670.7412687473968</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="D8" t="n">
-        <v>670.7412687473968</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="E8" t="n">
-        <v>284.9530161491526</v>
+        <v>74.81188663097703</v>
       </c>
       <c r="F8" t="n">
         <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N8" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
         <v>2238.843319642689</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2520.971603332393</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T8" t="n">
-        <v>2520.971603332393</v>
+        <v>2531.572661847995</v>
       </c>
       <c r="U8" t="n">
-        <v>2520.971603332393</v>
+        <v>2277.810876486087</v>
       </c>
       <c r="V8" t="n">
-        <v>2189.908715988822</v>
+        <v>1946.747989142516</v>
       </c>
       <c r="W8" t="n">
-        <v>2189.908715988822</v>
+        <v>1593.979333872402</v>
       </c>
       <c r="X8" t="n">
-        <v>1816.442957727742</v>
+        <v>1220.513575611322</v>
       </c>
       <c r="Y8" t="n">
-        <v>1426.30362575193</v>
+        <v>830.3742436355105</v>
       </c>
     </row>
     <row r="9">
@@ -4880,19 +4880,19 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
         <v>1748.695370517453</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>325.6879402326646</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>156.7517573047577</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K10" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064342</v>
+        <v>507.3364050629043</v>
       </c>
     </row>
     <row r="11">
@@ -5017,7 +5017,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C11" t="n">
         <v>2005.253839749764</v>
@@ -5026,7 +5026,7 @@
         <v>1646.988141143014</v>
       </c>
       <c r="E11" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F11" t="n">
         <v>850.213983755162</v>
@@ -5047,13 +5047,13 @@
         <v>1106.569146563073</v>
       </c>
       <c r="L11" t="n">
-        <v>1898.858917622687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M11" t="n">
-        <v>2432.390822294612</v>
+        <v>2091.135264483406</v>
       </c>
       <c r="N11" t="n">
-        <v>2979.169639353394</v>
+        <v>2637.914081542188</v>
       </c>
       <c r="O11" t="n">
         <v>3482.142110232731</v>
@@ -5096,25 +5096,25 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973189</v>
       </c>
       <c r="C12" t="n">
-        <v>796.1397432161925</v>
+        <v>796.139743216192</v>
       </c>
       <c r="D12" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549408</v>
       </c>
       <c r="E12" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494852</v>
       </c>
       <c r="F12" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763703</v>
       </c>
       <c r="G12" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089888</v>
       </c>
       <c r="H12" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468563</v>
       </c>
       <c r="I12" t="n">
         <v>95.56103444839441</v>
@@ -5126,7 +5126,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L12" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M12" t="n">
         <v>1241.47698845434</v>
@@ -5138,16 +5138,16 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P12" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q12" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R12" t="n">
-        <v>2593.958107142068</v>
+        <v>2593.958107142067</v>
       </c>
       <c r="S12" t="n">
-        <v>2464.520220635548</v>
+        <v>2464.520220635547</v>
       </c>
       <c r="T12" t="n">
         <v>2271.877220313403</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>536.5812623108401</v>
+        <v>368.3587133864212</v>
       </c>
       <c r="C13" t="n">
-        <v>536.5812623108401</v>
+        <v>199.4225304585143</v>
       </c>
       <c r="D13" t="n">
-        <v>536.5812623108401</v>
+        <v>199.4225304585143</v>
       </c>
       <c r="E13" t="n">
-        <v>388.668168728447</v>
+        <v>199.4225304585143</v>
       </c>
       <c r="F13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G13" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H13" t="n">
         <v>95.56103444839441</v>
@@ -5232,19 +5232,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U13" t="n">
-        <v>1490.320936281945</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V13" t="n">
-        <v>1235.636448076058</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W13" t="n">
-        <v>946.2192780390972</v>
+        <v>998.7893082582084</v>
       </c>
       <c r="X13" t="n">
-        <v>718.2297271410798</v>
+        <v>770.7997573601911</v>
       </c>
       <c r="Y13" t="n">
-        <v>718.2297271410798</v>
+        <v>550.0071782166609</v>
       </c>
     </row>
     <row r="14">
@@ -5257,67 +5257,67 @@
         <v>2374.216356690176</v>
       </c>
       <c r="C14" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D14" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E14" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F14" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G14" t="n">
-        <v>435.1415336001585</v>
+        <v>435.1415336001592</v>
       </c>
       <c r="H14" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089264</v>
       </c>
       <c r="I14" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J14" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K14" t="n">
-        <v>785.6651881176194</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L14" t="n">
-        <v>1521.86673817257</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M14" t="n">
-        <v>2055.398642844494</v>
+        <v>2016.310259422546</v>
       </c>
       <c r="N14" t="n">
-        <v>2602.177459903276</v>
+        <v>2667.236715577531</v>
       </c>
       <c r="O14" t="n">
-        <v>3482.142110232731</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P14" t="n">
-        <v>4195.497197679677</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q14" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R14" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S14" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T14" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U14" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V14" t="n">
         <v>3877.189942261304</v>
       </c>
       <c r="W14" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X14" t="n">
         <v>3150.95552873011</v>
@@ -5333,28 +5333,28 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C15" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D15" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E15" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F15" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G15" t="n">
-        <v>205.0702204089894</v>
+        <v>205.0702204089889</v>
       </c>
       <c r="H15" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I15" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J15" t="n">
         <v>189.2383039390118</v>
@@ -5363,7 +5363,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L15" t="n">
-        <v>794.2006632320243</v>
+        <v>794.2006632320242</v>
       </c>
       <c r="M15" t="n">
         <v>1241.47698845434</v>
@@ -5399,10 +5399,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X15" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y15" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="16">
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>540.4807149410336</v>
+        <v>270.9417306852383</v>
       </c>
       <c r="C16" t="n">
-        <v>540.4807149410336</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D16" t="n">
-        <v>390.3640755286979</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E16" t="n">
-        <v>242.4509819463048</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F16" t="n">
-        <v>95.56103444839441</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I16" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J16" t="n">
         <v>140.68366689533</v>
@@ -5466,22 +5466,22 @@
         <v>1956.343466104704</v>
       </c>
       <c r="T16" t="n">
-        <v>1956.343466104704</v>
+        <v>1734.57685067423</v>
       </c>
       <c r="U16" t="n">
-        <v>1667.240599230347</v>
+        <v>1445.473983799873</v>
       </c>
       <c r="V16" t="n">
-        <v>1460.328479849782</v>
+        <v>1190.789495593986</v>
       </c>
       <c r="W16" t="n">
-        <v>1170.911309812821</v>
+        <v>901.3723255570255</v>
       </c>
       <c r="X16" t="n">
-        <v>942.9217589148035</v>
+        <v>673.3827746590082</v>
       </c>
       <c r="Y16" t="n">
-        <v>722.1291797712734</v>
+        <v>452.5901955154781</v>
       </c>
     </row>
     <row r="17">
@@ -5491,25 +5491,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
         <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E17" t="n">
         <v>1261.199888544769</v>
       </c>
       <c r="F17" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839441</v>
@@ -5518,22 +5518,22 @@
         <v>284.4401654074198</v>
       </c>
       <c r="K17" t="n">
-        <v>685.1208104866375</v>
+        <v>618.2595390972663</v>
       </c>
       <c r="L17" t="n">
-        <v>1549.639626139992</v>
+        <v>1482.778354750621</v>
       </c>
       <c r="M17" t="n">
-        <v>2528.189928969821</v>
+        <v>2461.32865758045</v>
       </c>
       <c r="N17" t="n">
-        <v>3507.942201196468</v>
+        <v>3008.107474639232</v>
       </c>
       <c r="O17" t="n">
-        <v>4010.914672075804</v>
+        <v>3511.079945518569</v>
       </c>
       <c r="P17" t="n">
-        <v>4405.689038432983</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q17" t="n">
         <v>4653.975400188665</v>
@@ -5557,10 +5557,10 @@
         <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>506.832110204571</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="C19" t="n">
-        <v>506.832110204571</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="D19" t="n">
-        <v>506.832110204571</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="E19" t="n">
-        <v>506.8067350374723</v>
+        <v>260.9043113423046</v>
       </c>
       <c r="F19" t="n">
-        <v>506.8067350374723</v>
+        <v>114.0143638443942</v>
       </c>
       <c r="G19" t="n">
-        <v>339.1038984121913</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H19" t="n">
-        <v>192.886711630049</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839441</v>
@@ -5697,28 +5697,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R19" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104704</v>
       </c>
       <c r="S19" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.65758193153</v>
       </c>
       <c r="T19" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U19" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V19" t="n">
-        <v>909.2731541783409</v>
+        <v>999.1036114208126</v>
       </c>
       <c r="W19" t="n">
-        <v>909.2731541783409</v>
+        <v>709.6864413838521</v>
       </c>
       <c r="X19" t="n">
-        <v>909.2731541783409</v>
+        <v>481.6968904858347</v>
       </c>
       <c r="Y19" t="n">
-        <v>688.4805750348107</v>
+        <v>260.9043113423046</v>
       </c>
     </row>
     <row r="20">
@@ -5731,16 +5731,16 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C20" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749763</v>
       </c>
       <c r="D20" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E20" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F20" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G20" t="n">
         <v>435.1415336001585</v>
@@ -5755,25 +5755,25 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K20" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686767</v>
       </c>
       <c r="L20" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522031</v>
       </c>
       <c r="M20" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193956</v>
       </c>
       <c r="N20" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O20" t="n">
-        <v>3482.142110232731</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679677</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188665</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R20" t="n">
         <v>4778.05172241972</v>
@@ -5785,19 +5785,19 @@
         <v>4461.783306331037</v>
       </c>
       <c r="U20" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604873</v>
       </c>
       <c r="V20" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261302</v>
       </c>
       <c r="W20" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.421286991188</v>
       </c>
       <c r="X20" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.955528730108</v>
       </c>
       <c r="Y20" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754296</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973194</v>
       </c>
       <c r="C21" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161924</v>
       </c>
       <c r="D21" t="n">
         <v>647.2053335549413</v>
       </c>
       <c r="E21" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494857</v>
       </c>
       <c r="F21" t="n">
         <v>341.4333205763708</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.0702204089894</v>
       </c>
       <c r="H21" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468568</v>
       </c>
       <c r="I21" t="n">
         <v>95.56103444839441</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
         <v>427.5025029193589</v>
@@ -5864,7 +5864,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U21" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V21" t="n">
         <v>1808.657265216076</v>
@@ -5886,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>432.2000540015823</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="C22" t="n">
-        <v>263.2638710736754</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="D22" t="n">
-        <v>263.2638710736754</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="E22" t="n">
-        <v>263.2638710736754</v>
+        <v>217.4149401676105</v>
       </c>
       <c r="F22" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G22" t="n">
         <v>95.56103444839441</v>
@@ -5934,28 +5934,28 @@
         <v>1956.343466104704</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862232</v>
       </c>
       <c r="S22" t="n">
-        <v>1956.343466104704</v>
+        <v>1674.827124689058</v>
       </c>
       <c r="T22" t="n">
-        <v>1895.835173990573</v>
+        <v>1453.060509258584</v>
       </c>
       <c r="U22" t="n">
-        <v>1606.732307116217</v>
+        <v>1163.957642384228</v>
       </c>
       <c r="V22" t="n">
-        <v>1352.04781891033</v>
+        <v>909.2731541783409</v>
       </c>
       <c r="W22" t="n">
-        <v>1062.630648873369</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="X22" t="n">
-        <v>834.6410979753522</v>
+        <v>619.8559841413803</v>
       </c>
       <c r="Y22" t="n">
-        <v>613.848518831822</v>
+        <v>399.0634049978502</v>
       </c>
     </row>
     <row r="23">
@@ -5992,16 +5992,16 @@
         <v>451.8458144277729</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563073</v>
+        <v>785.6651881176194</v>
       </c>
       <c r="L23" t="n">
-        <v>1898.858917622687</v>
+        <v>1236.699401366028</v>
       </c>
       <c r="M23" t="n">
-        <v>2432.390822294612</v>
+        <v>2215.249704195857</v>
       </c>
       <c r="N23" t="n">
-        <v>2979.169639353394</v>
+        <v>2762.028521254639</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232731</v>
@@ -6074,7 +6074,7 @@
         <v>427.5025029193589</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320242</v>
+        <v>794.2006632320243</v>
       </c>
       <c r="M24" t="n">
         <v>1241.47698845434</v>
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>500.2948715744233</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C25" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D25" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E25" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F25" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G25" t="n">
-        <v>163.6558520212353</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839441</v>
@@ -6174,25 +6174,25 @@
         <v>1866.513008862232</v>
       </c>
       <c r="S25" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T25" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U25" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V25" t="n">
-        <v>1420.142636483171</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W25" t="n">
-        <v>1130.72546644621</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X25" t="n">
-        <v>902.7359155481931</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y25" t="n">
-        <v>681.943336404663</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="26">
@@ -6208,55 +6208,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551618</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G26" t="n">
         <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089256</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J26" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277729</v>
       </c>
       <c r="K26" t="n">
-        <v>913.1101661838561</v>
+        <v>1106.569146563073</v>
       </c>
       <c r="L26" t="n">
-        <v>1364.144379432265</v>
+        <v>1898.858917622687</v>
       </c>
       <c r="M26" t="n">
-        <v>1897.67628410419</v>
+        <v>2432.390822294612</v>
       </c>
       <c r="N26" t="n">
-        <v>2877.428556330836</v>
+        <v>2979.169639353394</v>
       </c>
       <c r="O26" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P26" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q26" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R26" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S26" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T26" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U26" t="n">
         <v>4208.252829604874</v>
@@ -6281,28 +6281,28 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C27" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G27" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H27" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I27" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J27" t="n">
         <v>189.2383039390118</v>
@@ -6338,7 +6338,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="28">
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C28" t="n">
-        <v>559.5976972681534</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F28" t="n">
-        <v>409.4810578558177</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G28" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I28" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J28" t="n">
         <v>140.68366689533</v>
@@ -6417,19 +6417,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1542.890966501056</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V28" t="n">
-        <v>1288.206478295169</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W28" t="n">
-        <v>998.7893082582084</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X28" t="n">
-        <v>770.7997573601911</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y28" t="n">
-        <v>559.5976972681534</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="29">
@@ -6451,43 +6451,43 @@
         <v>1261.199888544769</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551617</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001583</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089255</v>
       </c>
       <c r="I29" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K29" t="n">
-        <v>785.6651881176194</v>
+        <v>722.4071781934679</v>
       </c>
       <c r="L29" t="n">
-        <v>1236.699401366028</v>
+        <v>1586.925993846823</v>
       </c>
       <c r="M29" t="n">
-        <v>2215.249704195857</v>
+        <v>2120.457898518747</v>
       </c>
       <c r="N29" t="n">
-        <v>2762.028521254639</v>
+        <v>2667.23671557753</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3547.201365906984</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.55645335393</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R29" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S29" t="n">
         <v>4667.761053946815</v>
@@ -6518,28 +6518,28 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>970.5927724973197</v>
+        <v>970.5927724973195</v>
       </c>
       <c r="C30" t="n">
-        <v>796.1397432161928</v>
+        <v>796.1397432161925</v>
       </c>
       <c r="D30" t="n">
-        <v>647.2053335549415</v>
+        <v>647.2053335549413</v>
       </c>
       <c r="E30" t="n">
-        <v>487.9678785494859</v>
+        <v>487.9678785494858</v>
       </c>
       <c r="F30" t="n">
-        <v>341.4333205763709</v>
+        <v>341.4333205763708</v>
       </c>
       <c r="G30" t="n">
         <v>205.0702204089889</v>
       </c>
       <c r="H30" t="n">
-        <v>114.5683260468565</v>
+        <v>114.5683260468564</v>
       </c>
       <c r="I30" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J30" t="n">
         <v>189.2383039390118</v>
@@ -6575,7 +6575,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U30" t="n">
-        <v>2043.809373447819</v>
+        <v>2043.809373447818</v>
       </c>
       <c r="V30" t="n">
         <v>1808.657265216076</v>
@@ -6584,10 +6584,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X30" t="n">
-        <v>1346.568408282342</v>
+        <v>1346.568408282341</v>
       </c>
       <c r="Y30" t="n">
-        <v>1138.808109517388</v>
+        <v>1138.808109517387</v>
       </c>
     </row>
     <row r="31">
@@ -6597,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C31" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D31" t="n">
-        <v>260.9043113423046</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E31" t="n">
-        <v>112.9912177599115</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I31" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J31" t="n">
         <v>140.68366689533</v>
@@ -6654,19 +6654,19 @@
         <v>1542.890966501056</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="32">
@@ -6691,46 +6691,46 @@
         <v>850.213983755162</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001586</v>
+        <v>435.1415336001584</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089258</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I32" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>284.4401654074198</v>
       </c>
       <c r="K32" t="n">
-        <v>1106.569146563073</v>
+        <v>818.2062848686778</v>
       </c>
       <c r="L32" t="n">
-        <v>1557.603359811481</v>
+        <v>1682.725100522032</v>
       </c>
       <c r="M32" t="n">
-        <v>2091.135264483406</v>
+        <v>2216.257005193957</v>
       </c>
       <c r="N32" t="n">
-        <v>2637.914081542188</v>
+        <v>3196.009277420603</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750058</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107236</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862918</v>
       </c>
       <c r="R32" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S32" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T32" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U32" t="n">
         <v>4208.252829604874</v>
@@ -6755,46 +6755,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I33" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J33" t="n">
         <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N33" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O33" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P33" t="n">
         <v>2436.460902902952</v>
@@ -6803,16 +6803,16 @@
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I34" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J34" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,19 +6873,19 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T34" t="n">
         <v>1542.890966501056</v>
@@ -6894,16 +6894,16 @@
         <v>1253.788099626699</v>
       </c>
       <c r="V34" t="n">
-        <v>1015.408799357142</v>
+        <v>999.1036114208122</v>
       </c>
       <c r="W34" t="n">
-        <v>725.9916293201816</v>
+        <v>709.6864413838516</v>
       </c>
       <c r="X34" t="n">
-        <v>498.0020784221642</v>
+        <v>481.6968904858343</v>
       </c>
       <c r="Y34" t="n">
-        <v>277.2094992786341</v>
+        <v>260.9043113423041</v>
       </c>
     </row>
     <row r="35">
@@ -6919,55 +6919,55 @@
         <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143013</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544769</v>
       </c>
       <c r="F35" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551615</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001585</v>
+        <v>435.141533600158</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089252</v>
       </c>
       <c r="I35" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K35" t="n">
-        <v>913.1101661838561</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L35" t="n">
-        <v>1364.144379432265</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M35" t="n">
-        <v>1897.67628410419</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N35" t="n">
-        <v>2877.428556330836</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O35" t="n">
-        <v>3757.393206660291</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R35" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S35" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T35" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U35" t="n">
         <v>4208.252829604874</v>
@@ -6992,49 +6992,49 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>970.5927724973194</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C36" t="n">
-        <v>796.1397432161924</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D36" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E36" t="n">
-        <v>487.9678785494857</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F36" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089894</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I36" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J36" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193591</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320246</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N36" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O36" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P36" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q36" t="n">
         <v>2594.102460549552</v>
@@ -7058,10 +7058,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X36" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y36" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="37">
@@ -7071,34 +7071,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>414.6138567886371</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="C37" t="n">
-        <v>245.6776738607302</v>
+        <v>951.7264155301116</v>
       </c>
       <c r="D37" t="n">
-        <v>95.56103444839442</v>
+        <v>801.6097761177758</v>
       </c>
       <c r="E37" t="n">
-        <v>95.56103444839442</v>
+        <v>653.6966825353827</v>
       </c>
       <c r="F37" t="n">
-        <v>95.56103444839442</v>
+        <v>506.8067350374723</v>
       </c>
       <c r="G37" t="n">
-        <v>95.56103444839442</v>
+        <v>339.1038984121913</v>
       </c>
       <c r="H37" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I37" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J37" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="T37" t="n">
-        <v>1878.248976777628</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="U37" t="n">
-        <v>1589.146109903272</v>
+        <v>1734.576850674229</v>
       </c>
       <c r="V37" t="n">
-        <v>1334.461621697385</v>
+        <v>1479.892362468342</v>
       </c>
       <c r="W37" t="n">
-        <v>1045.044451660424</v>
+        <v>1348.652149356036</v>
       </c>
       <c r="X37" t="n">
-        <v>817.0549007624069</v>
+        <v>1120.662598458018</v>
       </c>
       <c r="Y37" t="n">
-        <v>596.2623216188767</v>
+        <v>1120.662598458018</v>
       </c>
     </row>
     <row r="38">
@@ -7162,7 +7162,7 @@
         <v>1261.19988854477</v>
       </c>
       <c r="F38" t="n">
-        <v>850.2139837551625</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G38" t="n">
         <v>435.1415336001585</v>
@@ -7171,40 +7171,40 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I38" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J38" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1898.858917622688</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2432.390822294613</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>2979.169639353395</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>3482.142110232732</v>
+        <v>3482.142110232731</v>
       </c>
       <c r="P38" t="n">
-        <v>4195.497197679678</v>
+        <v>4195.497197679677</v>
       </c>
       <c r="Q38" t="n">
-        <v>4653.975400188666</v>
+        <v>4653.975400188665</v>
       </c>
       <c r="R38" t="n">
-        <v>4778.051722419721</v>
+        <v>4778.05172241972</v>
       </c>
       <c r="S38" t="n">
-        <v>4667.761053946816</v>
+        <v>4667.761053946815</v>
       </c>
       <c r="T38" t="n">
-        <v>4461.783306331038</v>
+        <v>4461.783306331037</v>
       </c>
       <c r="U38" t="n">
         <v>4208.252829604874</v>
@@ -7244,34 +7244,34 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
       </c>
       <c r="I39" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N39" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O39" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P39" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q39" t="n">
         <v>2594.102460549552</v>
@@ -7308,34 +7308,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="C40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="D40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="E40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="F40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="G40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="H40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="I40" t="n">
-        <v>95.56103444839442</v>
+        <v>95.56103444839441</v>
       </c>
       <c r="J40" t="n">
-        <v>140.68366689533</v>
+        <v>140.6836668953299</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,25 +7347,25 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T40" t="n">
         <v>1542.890966501056</v>
       </c>
       <c r="U40" t="n">
-        <v>1270.093287563029</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V40" t="n">
         <v>1015.408799357142</v>
@@ -7393,16 +7393,16 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D41" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E41" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F41" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G41" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H41" t="n">
         <v>137.5579332089257</v>
@@ -7411,28 +7411,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J41" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K41" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L41" t="n">
-        <v>1557.603359811481</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M41" t="n">
-        <v>2091.135264483406</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N41" t="n">
-        <v>2637.914081542188</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O41" t="n">
-        <v>3517.878731871643</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P41" t="n">
-        <v>4231.233819318589</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q41" t="n">
-        <v>4689.712021827577</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R41" t="n">
         <v>4778.051722419721</v>
@@ -7481,7 +7481,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G42" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H42" t="n">
         <v>114.5683260468565</v>
@@ -7490,25 +7490,25 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J42" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K42" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L42" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M42" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N42" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O42" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P42" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q42" t="n">
         <v>2594.102460549552</v>
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="C43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F43" t="n">
-        <v>95.56103444839442</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G43" t="n">
         <v>95.56103444839442</v>
@@ -7572,7 +7572,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K43" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L43" t="n">
         <v>661.2306482927024</v>
@@ -7584,37 +7584,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O43" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P43" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q43" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R43" t="n">
-        <v>1956.343466104704</v>
+        <v>1919.558911522784</v>
       </c>
       <c r="S43" t="n">
-        <v>1780.96276986786</v>
+        <v>1727.87302734961</v>
       </c>
       <c r="T43" t="n">
-        <v>1559.196154437386</v>
+        <v>1506.106411919136</v>
       </c>
       <c r="U43" t="n">
-        <v>1270.093287563029</v>
+        <v>1217.00354504478</v>
       </c>
       <c r="V43" t="n">
-        <v>1015.408799357142</v>
+        <v>962.3190568388932</v>
       </c>
       <c r="W43" t="n">
-        <v>725.9916293201816</v>
+        <v>672.9018868019325</v>
       </c>
       <c r="X43" t="n">
-        <v>498.0020784221642</v>
+        <v>444.9123359039152</v>
       </c>
       <c r="Y43" t="n">
-        <v>277.2094992786341</v>
+        <v>444.9123359039152</v>
       </c>
     </row>
     <row r="44">
@@ -7624,19 +7624,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2374.216356690175</v>
+        <v>2374.216356690176</v>
       </c>
       <c r="C44" t="n">
-        <v>2005.253839749764</v>
+        <v>2005.253839749765</v>
       </c>
       <c r="D44" t="n">
-        <v>1646.988141143014</v>
+        <v>1646.988141143015</v>
       </c>
       <c r="E44" t="n">
-        <v>1261.19988854477</v>
+        <v>1261.199888544771</v>
       </c>
       <c r="F44" t="n">
-        <v>850.213983755162</v>
+        <v>850.2139837551626</v>
       </c>
       <c r="G44" t="n">
         <v>435.1415336001585</v>
@@ -7645,55 +7645,55 @@
         <v>137.5579332089257</v>
       </c>
       <c r="I44" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J44" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K44" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L44" t="n">
-        <v>1586.925993846823</v>
+        <v>1898.858917622689</v>
       </c>
       <c r="M44" t="n">
-        <v>2120.457898518747</v>
+        <v>2432.390822294613</v>
       </c>
       <c r="N44" t="n">
-        <v>2667.23671557753</v>
+        <v>2979.169639353395</v>
       </c>
       <c r="O44" t="n">
-        <v>3547.201365906984</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P44" t="n">
-        <v>4260.55645335393</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q44" t="n">
-        <v>4719.034655862918</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R44" t="n">
-        <v>4778.05172241972</v>
+        <v>4778.051722419721</v>
       </c>
       <c r="S44" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T44" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U44" t="n">
-        <v>4208.252829604874</v>
+        <v>4208.252829604875</v>
       </c>
       <c r="V44" t="n">
-        <v>3877.189942261303</v>
+        <v>3877.189942261304</v>
       </c>
       <c r="W44" t="n">
-        <v>3524.421286991189</v>
+        <v>3524.42128699119</v>
       </c>
       <c r="X44" t="n">
-        <v>3150.955528730109</v>
+        <v>3150.95552873011</v>
       </c>
       <c r="Y44" t="n">
-        <v>2760.816196754297</v>
+        <v>2760.816196754298</v>
       </c>
     </row>
     <row r="45">
@@ -7703,49 +7703,49 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>970.5927724973195</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C45" t="n">
-        <v>796.1397432161925</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D45" t="n">
-        <v>647.2053335549413</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E45" t="n">
-        <v>487.9678785494858</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F45" t="n">
-        <v>341.4333205763708</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G45" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H45" t="n">
-        <v>114.5683260468564</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I45" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J45" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K45" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L45" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M45" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N45" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O45" t="n">
-        <v>2125.96131142685</v>
+        <v>2125.961311426849</v>
       </c>
       <c r="P45" t="n">
-        <v>2436.460902902953</v>
+        <v>2436.460902902952</v>
       </c>
       <c r="Q45" t="n">
         <v>2594.102460549552</v>
@@ -7760,7 +7760,7 @@
         <v>2271.877220313403</v>
       </c>
       <c r="U45" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V45" t="n">
         <v>1808.657265216076</v>
@@ -7769,10 +7769,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X45" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y45" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="46">
@@ -7782,34 +7782,34 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C46" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D46" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E46" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F46" t="n">
-        <v>217.4149401676105</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="I46" t="n">
-        <v>95.56103444839441</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="J46" t="n">
         <v>140.68366689533</v>
       </c>
       <c r="K46" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L46" t="n">
         <v>661.2306482927024</v>
@@ -7821,37 +7821,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O46" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P46" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q46" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R46" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S46" t="n">
-        <v>1674.827124689058</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T46" t="n">
-        <v>1453.060509258584</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U46" t="n">
-        <v>1163.957642384228</v>
+        <v>1253.788099626699</v>
       </c>
       <c r="V46" t="n">
-        <v>909.2731541783409</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W46" t="n">
-        <v>619.8559841413803</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X46" t="n">
-        <v>619.8559841413803</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y46" t="n">
-        <v>399.0634049978502</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
   </sheetData>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8306,7 +8306,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N6" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O6" t="n">
         <v>393.8623192767295</v>
@@ -8473,7 +8473,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8531,10 +8531,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270195</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>221.0467526719084</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8543,7 +8543,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>479.3423743435536</v>
+        <v>359.906554245176</v>
       </c>
       <c r="O9" t="n">
         <v>393.8623192767295</v>
@@ -8695,7 +8695,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L11" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>344.7025836476829</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8926,19 +8926,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>288.0478149561023</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>105.1996354507096</v>
       </c>
       <c r="O14" t="n">
         <v>380.8001812627454</v>
@@ -8950,7 +8950,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9166,7 +9166,7 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>67.53663776704161</v>
+        <v>0</v>
       </c>
       <c r="L17" t="n">
         <v>417.6612145504504</v>
@@ -9175,16 +9175,16 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N17" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>292.5685715191211</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R17" t="n">
         <v>65.71641987298243</v>
@@ -9403,28 +9403,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K20" t="n">
-        <v>324.1454125711647</v>
+        <v>32.86979469803765</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>344.7025836476829</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9640,19 +9640,19 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>344.7025836476828</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>219.3344627260153</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9874,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>297.8289162490806</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
-        <v>0</v>
+        <v>344.7025836476828</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>105.1996354507086</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>219.3344627260163</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>324.1454125711647</v>
+        <v>201.9664098701128</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,10 +10585,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>297.8289162490806</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
@@ -10597,19 +10597,19 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>380.8001812627454</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P35" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10828,7 +10828,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>344.7025836476838</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10837,7 +10837,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476844</v>
       </c>
       <c r="P38" t="n">
         <v>321.7987081714826</v>
@@ -11065,7 +11065,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -11074,7 +11074,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>29.61882225792094</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
-        <v>29.61882225792044</v>
+        <v>344.7025836476847</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
@@ -11320,7 +11320,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23418,22 +23418,22 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>42.59816697291258</v>
       </c>
       <c r="G13" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
         <v>96.35242040983809</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>234.1675082886928</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23484,7 +23484,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23655,19 +23655,19 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>159.6457400831806</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>144.7550149143208</v>
@@ -23706,13 +23706,13 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>47.29464513706782</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23889,7 +23889,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
@@ -23898,19 +23898,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4088412311415</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>147.7570121569884</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23952,10 +23952,10 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24138,10 +24138,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>24.78568136090736</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
         <v>144.7550149143208</v>
@@ -24174,13 +24174,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>159.6457400831801</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24192,7 +24192,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24378,10 +24378,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>77.34114551720826</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983809</v>
@@ -24414,13 +24414,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>105.0742887270134</v>
       </c>
       <c r="T25" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24615,10 +24615,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>96.35242040983809</v>
@@ -24657,10 +24657,10 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>9.494613860977552</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
@@ -24846,10 +24846,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>128.1651665445294</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
@@ -24894,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>16.14213605696636</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25074,7 +25074,7 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>16.14213605696668</v>
       </c>
       <c r="C34" t="n">
         <v>167.2468210986278</v>
@@ -25095,7 +25095,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,7 +25134,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25311,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25320,19 +25320,19 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,28 +25359,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>142.2354048423645</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>156.5951873554076</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,10 +25605,10 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>16.14213605696636</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>16.14213605696679</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>52.51544363394743</v>
       </c>
       <c r="S43" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26037,13 +26037,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>45.39044159700434</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26082,13 +26082,13 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>16.14213605696679</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>878023.6515523276</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>878023.6515523278</v>
+        <v>878023.6515523277</v>
       </c>
     </row>
     <row r="11">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>878023.6515523277</v>
+        <v>878023.6515523278</v>
       </c>
     </row>
     <row r="14">
@@ -26316,46 +26316,46 @@
         <v>554203.1946583913</v>
       </c>
       <c r="C2" t="n">
+        <v>554203.1946583909</v>
+      </c>
+      <c r="D2" t="n">
         <v>554203.1946583911</v>
       </c>
-      <c r="D2" t="n">
-        <v>554203.1946583909</v>
-      </c>
       <c r="E2" t="n">
-        <v>536060.4122974274</v>
+        <v>536060.4122974277</v>
       </c>
       <c r="F2" t="n">
-        <v>536060.4122974273</v>
+        <v>536060.4122974275</v>
       </c>
       <c r="G2" t="n">
         <v>536060.4122974275</v>
       </c>
       <c r="H2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="I2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="J2" t="n">
+        <v>536060.4122974273</v>
+      </c>
+      <c r="K2" t="n">
+        <v>536060.4122974274</v>
+      </c>
+      <c r="L2" t="n">
+        <v>536060.4122974277</v>
+      </c>
+      <c r="M2" t="n">
         <v>536060.4122974272</v>
       </c>
-      <c r="I2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="J2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="K2" t="n">
-        <v>536060.4122974277</v>
-      </c>
-      <c r="L2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>536060.4122974272</v>
+      </c>
+      <c r="O2" t="n">
         <v>536060.4122974273</v>
       </c>
-      <c r="N2" t="n">
+      <c r="P2" t="n">
         <v>536060.4122974273</v>
-      </c>
-      <c r="O2" t="n">
-        <v>536060.4122974275</v>
-      </c>
-      <c r="P2" t="n">
-        <v>536060.4122974277</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>727377.4139934067</v>
+        <v>727377.4139934066</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26429,7 +26429,7 @@
         <v>25090.7236749938</v>
       </c>
       <c r="F4" t="n">
-        <v>25090.7236749938</v>
+        <v>25090.72367499382</v>
       </c>
       <c r="G4" t="n">
         <v>25090.7236749938</v>
@@ -26438,16 +26438,16 @@
         <v>25090.7236749938</v>
       </c>
       <c r="I4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="J4" t="n">
         <v>25090.7236749938</v>
       </c>
-      <c r="J4" t="n">
+      <c r="K4" t="n">
+        <v>25090.72367499381</v>
+      </c>
+      <c r="L4" t="n">
         <v>25090.72367499382</v>
-      </c>
-      <c r="K4" t="n">
-        <v>25090.72367499382</v>
-      </c>
-      <c r="L4" t="n">
-        <v>25090.72367499381</v>
       </c>
       <c r="M4" t="n">
         <v>25090.72367499382</v>
@@ -26459,7 +26459,7 @@
         <v>25090.72367499382</v>
       </c>
       <c r="P4" t="n">
-        <v>25090.72367499381</v>
+        <v>25090.72367499382</v>
       </c>
     </row>
     <row r="5">
@@ -26472,16 +26472,16 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="E5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="F5" t="n">
-        <v>96383.51825371364</v>
+        <v>96383.51825371366</v>
       </c>
       <c r="G5" t="n">
         <v>96383.51825371364</v>
@@ -26493,22 +26493,22 @@
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="P5" t="n">
         <v>96383.51825371364</v>
@@ -26524,46 +26524,46 @@
         <v>-319688.2685472942</v>
       </c>
       <c r="C6" t="n">
+        <v>270279.6106672499</v>
+      </c>
+      <c r="D6" t="n">
         <v>270279.6106672501</v>
       </c>
-      <c r="D6" t="n">
-        <v>270279.61066725</v>
-      </c>
       <c r="E6" t="n">
-        <v>-313463.1985269447</v>
+        <v>-312858.4391149122</v>
       </c>
       <c r="F6" t="n">
-        <v>413914.2154664619</v>
+        <v>414518.9748784942</v>
       </c>
       <c r="G6" t="n">
-        <v>413914.2154664621</v>
+        <v>414518.9748784943</v>
       </c>
       <c r="H6" t="n">
-        <v>413914.2154664618</v>
+        <v>414518.9748784944</v>
       </c>
       <c r="I6" t="n">
-        <v>413914.2154664621</v>
+        <v>414518.9748784942</v>
       </c>
       <c r="J6" t="n">
-        <v>237490.9962738692</v>
+        <v>238095.7556859011</v>
       </c>
       <c r="K6" t="n">
-        <v>413914.2154664622</v>
+        <v>414518.9748784942</v>
       </c>
       <c r="L6" t="n">
-        <v>413914.2154664621</v>
+        <v>414518.9748784944</v>
       </c>
       <c r="M6" t="n">
-        <v>284271.9006275171</v>
+        <v>284876.6600395492</v>
       </c>
       <c r="N6" t="n">
-        <v>413914.2154664618</v>
+        <v>414518.9748784939</v>
       </c>
       <c r="O6" t="n">
-        <v>413914.2154664621</v>
+        <v>414518.974878494</v>
       </c>
       <c r="P6" t="n">
-        <v>413914.2154664623</v>
+        <v>414518.974878494</v>
       </c>
     </row>
   </sheetData>
@@ -26740,10 +26740,10 @@
         <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26792,10 +26792,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="E4" t="n">
         <v>1194.51293060493</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762117</v>
+        <v>712.0330363762116</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>520.2256578503744</v>
+        <v>520.2256578503743</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27381,13 +27381,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,10 +27396,10 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>66.46880890972548</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27426,19 +27426,19 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>39.96047566075907</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27542,25 +27542,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>111.9799311553897</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>109.3628111481739</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.19995918853699</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27581,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
         <v>146.6651919801578</v>
@@ -27621,10 +27621,10 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27663,28 +27663,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>63.38716181873413</v>
+        <v>159.2708804221573</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27773,13 +27773,13 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>53.95978732560542</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27797,7 +27797,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27836,13 +27836,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>63.37316471551392</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27861,10 +27861,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>191.9602817770062</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27900,22 +27900,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>107.0060580539443</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -28010,19 +28010,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060688</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>46.83478528866308</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28031,10 +28031,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -28079,7 +28079,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -31284,19 +31284,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31311,13 +31311,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31357,16 +31357,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31384,22 +31384,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,16 +31436,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31460,16 +31460,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,19 +31673,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31697,22 +31697,22 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31858,7 +31858,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32086,7 +32086,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N15" t="n">
         <v>609.6478166837925</v>
@@ -32557,7 +32557,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
         <v>593.9283018233475</v>
@@ -32794,7 +32794,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M24" t="n">
         <v>593.9283018233475</v>
@@ -32809,7 +32809,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.708647897025</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002929</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,19 +34935,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35026,13 +35026,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,10 +35251,10 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
-        <v>214.4070918624596</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
         <v>408.7029475713857</v>
@@ -35263,13 +35263,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355128</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
         <v>173.8110948137341</v>
@@ -35333,7 +35333,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35348,7 +35348,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35415,7 +35415,7 @@
         <v>661.3366991265652</v>
       </c>
       <c r="L11" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M11" t="n">
         <v>538.9211158302268</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>508.0530008882191</v>
+        <v>852.755584535902</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35506,7 +35506,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35646,19 +35646,19 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554005</v>
       </c>
       <c r="L14" t="n">
-        <v>743.6379293484345</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M14" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129115</v>
+        <v>657.5014708636211</v>
       </c>
       <c r="O14" t="n">
         <v>888.8531821509645</v>
@@ -35670,7 +35670,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35734,7 +35734,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M15" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N15" t="n">
         <v>478.3061046004592</v>
@@ -35886,7 +35886,7 @@
         <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>404.7279243224421</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
         <v>873.2513289427826</v>
@@ -35895,16 +35895,16 @@
         <v>988.4346493230593</v>
       </c>
       <c r="N17" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
         <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>691.330557738493</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -36123,28 +36123,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K20" t="n">
-        <v>661.3366991265652</v>
+        <v>370.0610812534381</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M20" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N20" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248956</v>
       </c>
       <c r="O20" t="n">
-        <v>852.755584535902</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P20" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36205,7 +36205,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340055</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
         <v>451.7942679013292</v>
@@ -36360,19 +36360,19 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K23" t="n">
-        <v>661.3366991265652</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L23" t="n">
-        <v>800.292698040015</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>988.4346493230593</v>
       </c>
       <c r="N23" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>727.3874636142344</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908545</v>
@@ -36442,7 +36442,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340055</v>
       </c>
       <c r="M24" t="n">
         <v>451.7942679013292</v>
@@ -36457,7 +36457,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>635.0202028044811</v>
+        <v>661.3366991265652</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>800.292698040015</v>
       </c>
       <c r="M26" t="n">
         <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>888.8531821509645</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P26" t="n">
         <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36831,22 +36831,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554005</v>
+        <v>442.3909220061091</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427826</v>
       </c>
       <c r="M29" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N29" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O29" t="n">
-        <v>727.3874636142355</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P29" t="n">
         <v>720.5606943908545</v>
@@ -36855,7 +36855,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>661.3366991265652</v>
+        <v>539.1576964255132</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K35" t="n">
-        <v>635.0202028044811</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P35" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37545,25 +37545,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>800.2926980400159</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359034</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
         <v>125.3296184152072</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,28 +37782,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>89.23202080014572</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,28 +38019,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L44" t="n">
-        <v>485.2089366502526</v>
+        <v>800.2926980400166</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>888.8531821509645</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
